--- a/data/hotels_by_city/Houston/Houston_shard_526.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_526.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="355">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d247110-Reviews-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
   </si>
   <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Quality-Suites-Intercontinental-Airport-West.h880374.Hotel-Information?chkin=7%2F22%2F2018&amp;chkout=7%2F23%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531447082370&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=fc9aef29-49f7-4aa7-b871-28fe95b7eb5d&amp;mctc=9&amp;exp_dp=56.95&amp;exp_ts=1531447082888&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,963 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r576911495-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>247110</t>
+  </si>
+  <si>
+    <t>576911495</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay in this hotel, good size with a jacuzzi. Breakfast was OK, quite complete, A machine with 2 juices, good coffee, waffles, oatmeal, fruit, sweet rolls. they had scrambled eggs and sausage, only thing was that the eggs were too simple, more taste was desirable. The bad side, pool was cold, the gym needed service, it was not clean or serviced.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r576734519-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>576734519</t>
+  </si>
+  <si>
+    <t>It’s Nice!</t>
+  </si>
+  <si>
+    <t>No complaints and really loved the pool area and how neat and clean it was. Couldn’t wait to get back to the hotel everyday after our business meetings. My client couldn’t wait to tell me about her experience and couldn’t stop thanking me for setting the room up. She was from Chicago and her first time in Houston so she was ever so grateful. The beds were comfortable and all around a good place to rest after a long day.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r575528440-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>575528440</t>
+  </si>
+  <si>
+    <t>04/24/2018</t>
+  </si>
+  <si>
+    <t>Not quite what we expected...</t>
+  </si>
+  <si>
+    <t>We have been here for about 2 1/2 weeks; post Harvey, and I have to say the hotel is not quite what we expected. With that being said, the hotel exterior/interior is very neat, clean and lively. The hotel from the pictures online are very true to fit. From reading some other reviews I had expected the hotel to be drab and not very well kept, but the price was right, so we took a gamble. The check-in process was easy, we arrived at 11am so our room wasn't ready just yet, but the manager Holly jumped into action, and with a few clicks we were checked-in a new room. Upon inspection of the room we found everything neat and clean smelling. No complaints there. We unloaded very quickly and were greeted by each staff member with a smile. Later that evening we discovered that the sheets on the sofa bed were not there and the blanket needed to be replaced. I contacted the front desk to see about getting bedding and a new blanket, the young lady that worked that night was very rude and unprofessional. The next night I spoke with another young lady whom worked the night shift too, same issue as with the first lady, rude and unprofessional. Dealing with the ladies that work in the morning is a breeze, but the two at night are a trip. I decided to bring the issues (more than...We have been here for about 2 1/2 weeks; post Harvey, and I have to say the hotel is not quite what we expected. With that being said, the hotel exterior/interior is very neat, clean and lively. The hotel from the pictures online are very true to fit. From reading some other reviews I had expected the hotel to be drab and not very well kept, but the price was right, so we took a gamble. The check-in process was easy, we arrived at 11am so our room wasn't ready just yet, but the manager Holly jumped into action, and with a few clicks we were checked-in a new room. Upon inspection of the room we found everything neat and clean smelling. No complaints there. We unloaded very quickly and were greeted by each staff member with a smile. Later that evening we discovered that the sheets on the sofa bed were not there and the blanket needed to be replaced. I contacted the front desk to see about getting bedding and a new blanket, the young lady that worked that night was very rude and unprofessional. The next night I spoke with another young lady whom worked the night shift too, same issue as with the first lady, rude and unprofessional. Dealing with the ladies that work in the morning is a breeze, but the two at night are a trip. I decided to bring the issues (more than two) to management because I had an unpleasant experience over the phone with the night shift too. I was glad I did, Holly apologized and offered to make things right. Holly and the rest of the staff have been very accommodating and warm to my family and I. I hope the night shift cleans up their act. We are still at the hotel, I will update this review upon check-out.MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality_Suites_TX744, General Manager at Quality Suites Bush/IAH Airport West, responded to this reviewResponded April 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2018</t>
+  </si>
+  <si>
+    <t>We have been here for about 2 1/2 weeks; post Harvey, and I have to say the hotel is not quite what we expected. With that being said, the hotel exterior/interior is very neat, clean and lively. The hotel from the pictures online are very true to fit. From reading some other reviews I had expected the hotel to be drab and not very well kept, but the price was right, so we took a gamble. The check-in process was easy, we arrived at 11am so our room wasn't ready just yet, but the manager Holly jumped into action, and with a few clicks we were checked-in a new room. Upon inspection of the room we found everything neat and clean smelling. No complaints there. We unloaded very quickly and were greeted by each staff member with a smile. Later that evening we discovered that the sheets on the sofa bed were not there and the blanket needed to be replaced. I contacted the front desk to see about getting bedding and a new blanket, the young lady that worked that night was very rude and unprofessional. The next night I spoke with another young lady whom worked the night shift too, same issue as with the first lady, rude and unprofessional. Dealing with the ladies that work in the morning is a breeze, but the two at night are a trip. I decided to bring the issues (more than...We have been here for about 2 1/2 weeks; post Harvey, and I have to say the hotel is not quite what we expected. With that being said, the hotel exterior/interior is very neat, clean and lively. The hotel from the pictures online are very true to fit. From reading some other reviews I had expected the hotel to be drab and not very well kept, but the price was right, so we took a gamble. The check-in process was easy, we arrived at 11am so our room wasn't ready just yet, but the manager Holly jumped into action, and with a few clicks we were checked-in a new room. Upon inspection of the room we found everything neat and clean smelling. No complaints there. We unloaded very quickly and were greeted by each staff member with a smile. Later that evening we discovered that the sheets on the sofa bed were not there and the blanket needed to be replaced. I contacted the front desk to see about getting bedding and a new blanket, the young lady that worked that night was very rude and unprofessional. The next night I spoke with another young lady whom worked the night shift too, same issue as with the first lady, rude and unprofessional. Dealing with the ladies that work in the morning is a breeze, but the two at night are a trip. I decided to bring the issues (more than two) to management because I had an unpleasant experience over the phone with the night shift too. I was glad I did, Holly apologized and offered to make things right. Holly and the rest of the staff have been very accommodating and warm to my family and I. I hope the night shift cleans up their act. We are still at the hotel, I will update this review upon check-out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r542077982-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>542077982</t>
+  </si>
+  <si>
+    <t>11/19/2017</t>
+  </si>
+  <si>
+    <t>HORRIBLE WORKERS</t>
+  </si>
+  <si>
+    <t>This hotel was hosting hurricane Harvey victims and charging victims 100.00 deposit just to stay at the hotels and if you didn't have the deposit they were putting you out! they are sooooooooo rude, and ghetto!!!!  Specifically Rashana Jones! She is the worse front desk clerk! She harassed me to pay 100.00 after a previous front desk clerk stated that I DIDN'T HAVE TO PAY IT! I asked for the general manager to call me back and she never did. Her name is Polly! This hotel is scamming FEMA! They are charging FEMA ROOMS to get towels, and toothbrushes! I will be also reporting this hotel to FEMA!!!! THE WORSE HOTEL! DO NOT STAY HERE!!!! You will be treated like trash by the ghetto workers!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Quality_Suites_TX744, General Manager at Quality Suites Bush/IAH Airport West, responded to this reviewResponded November 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 20, 2017</t>
+  </si>
+  <si>
+    <t>This hotel was hosting hurricane Harvey victims and charging victims 100.00 deposit just to stay at the hotels and if you didn't have the deposit they were putting you out! they are sooooooooo rude, and ghetto!!!!  Specifically Rashana Jones! She is the worse front desk clerk! She harassed me to pay 100.00 after a previous front desk clerk stated that I DIDN'T HAVE TO PAY IT! I asked for the general manager to call me back and she never did. Her name is Polly! This hotel is scamming FEMA! They are charging FEMA ROOMS to get towels, and toothbrushes! I will be also reporting this hotel to FEMA!!!! THE WORSE HOTEL! DO NOT STAY HERE!!!! You will be treated like trash by the ghetto workers!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r538280286-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>538280286</t>
+  </si>
+  <si>
+    <t>11/04/2017</t>
+  </si>
+  <si>
+    <t>Close to the Airport</t>
+  </si>
+  <si>
+    <t>Hotel very close to the airport, but settled in an area where there is clearly nothing around but offices. In itself, the hotel is okay. Rooms are quite large, and cleaned (except the windows), but the appliances are in bad shape (fridge didn't work, AC smelt burn when turned on). Walls are quite thin, in the sense you will hear your neighbors snoring. Breakfast is good for American standard with eggs, sausage, bread, pancakes, yogurts and fruits. If you're not too picky about your comfort, and are here just for one night and do not plan to visit the city and enjoy its nightlife, definitely, you can go there!</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r481077388-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>481077388</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t>Meh you get what you pay for</t>
+  </si>
+  <si>
+    <t>This is a budget no frills airport hotel. We were there less than 10 hours as we had an early flight so didn't take advantage of their continental breakfast or airport shuttle. Rooms are large but sparsely decorated. Color scheme is blah and the bedding on one our beds had not been changed as there was makeup all over the pillows and sheets which is gross. We asked for new bedding which was quickly delivered. The rest of the room was clean. There are over a dozen airport hotels and this is one of the cheapest (We only paid $80). I thought the staff was friendly enough and efficient. You get what you pay for so adjust your expectations accordingly. I will also mention there is nothing within walking distance of this hotel so if you are without a car your dining options are severely limited. If I needed more than one night I would pay more money to stay elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>This is a budget no frills airport hotel. We were there less than 10 hours as we had an early flight so didn't take advantage of their continental breakfast or airport shuttle. Rooms are large but sparsely decorated. Color scheme is blah and the bedding on one our beds had not been changed as there was makeup all over the pillows and sheets which is gross. We asked for new bedding which was quickly delivered. The rest of the room was clean. There are over a dozen airport hotels and this is one of the cheapest (We only paid $80). I thought the staff was friendly enough and efficient. You get what you pay for so adjust your expectations accordingly. I will also mention there is nothing within walking distance of this hotel so if you are without a car your dining options are severely limited. If I needed more than one night I would pay more money to stay elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r466317235-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>466317235</t>
+  </si>
+  <si>
+    <t>03/11/2017</t>
+  </si>
+  <si>
+    <t>Avoid at all costs!</t>
+  </si>
+  <si>
+    <t>I just completed four nights at this hotel, and it is my worst hotel experience ever. This is after 500+ nights in the last ten years.
+Room was dirty upon arrival. Turned on the TV, did not work. I asked the front desk, and only offered to let me switch rooms (once he finally showed up to the desk). Since I already had everything unpacked, I decided to wait until the next day so they could take care of it. I came back the next evening, and the TV still did not work. When I inquired, he told me they were not able to get it to work. When I asked about another one, they said there wasn't one. When I asked about switching the TV with one that works from another room (hardly anyone staying there), I was told no to that too. Only way to rectify was to switch rooms.
+Once I switched rooms, the second room was dirtier than the first. It also had a one inch gap above the door. When I turned the TV on in that room, it did show the channel on the screen, but the picture was extremely fuzzy. It was an HDTV, but only had the coaxial connection. I decided not to inquire about fixing this TV, considering my prior experience. I also decided not to ask about light bulbs that were out, or lamp shades that were broken (among several...I just completed four nights at this hotel, and it is my worst hotel experience ever. This is after 500+ nights in the last ten years.Room was dirty upon arrival. Turned on the TV, did not work. I asked the front desk, and only offered to let me switch rooms (once he finally showed up to the desk). Since I already had everything unpacked, I decided to wait until the next day so they could take care of it. I came back the next evening, and the TV still did not work. When I inquired, he told me they were not able to get it to work. When I asked about another one, they said there wasn't one. When I asked about switching the TV with one that works from another room (hardly anyone staying there), I was told no to that too. Only way to rectify was to switch rooms.Once I switched rooms, the second room was dirtier than the first. It also had a one inch gap above the door. When I turned the TV on in that room, it did show the channel on the screen, but the picture was extremely fuzzy. It was an HDTV, but only had the coaxial connection. I decided not to inquire about fixing this TV, considering my prior experience. I also decided not to ask about light bulbs that were out, or lamp shades that were broken (among several things wrong).  Additionally, each day I returned from work, I found that my key would not get me in my room, so I would have to go back down to the front desk to get it recoded.  It wasn’t until Thursday evening that I figured out it was because each time I was given a key, no one knew how to program it to last until my check out.  Instead, it only lasted one day each time.At breakfast, the hot food was overcooked and old. Again, no one at the hotel, but enough food cooked for two dozen people, and must have been done right away in the morning @ 5AM. There were no hot sauces or other sauces available either. The bananas they had there had already started to rot. Staff was sitting at a table one morning all eating together in the patron area (at the only normally sized table).This brings me to my biggest disappointment of the week. At breakfast, the plastic silverware was all placed business end up in the holders. Not only is this disgusting, but it's also against health code. The only reason people do it is pure laziness (because more silverware fits in that way). Again, why do they need so much silverware when barely anyone is staying there? Laziness. When I asked the GM about it on Tuesday evening, he responded with "Oh man, they're still doing that? I already told them not to. I'll remind them". The next morning, no change. When I kindly asked the front desk girl about it (breakfast attendant nowhere to be found, ever), she responded snottily with "we can't put the silverware the other way". When I asked why, she said "because not as many fit that way". She only wanted to argue, and not take care of the customer. This didn't change the whole week.I can see why no one stays here.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>I just completed four nights at this hotel, and it is my worst hotel experience ever. This is after 500+ nights in the last ten years.
+Room was dirty upon arrival. Turned on the TV, did not work. I asked the front desk, and only offered to let me switch rooms (once he finally showed up to the desk). Since I already had everything unpacked, I decided to wait until the next day so they could take care of it. I came back the next evening, and the TV still did not work. When I inquired, he told me they were not able to get it to work. When I asked about another one, they said there wasn't one. When I asked about switching the TV with one that works from another room (hardly anyone staying there), I was told no to that too. Only way to rectify was to switch rooms.
+Once I switched rooms, the second room was dirtier than the first. It also had a one inch gap above the door. When I turned the TV on in that room, it did show the channel on the screen, but the picture was extremely fuzzy. It was an HDTV, but only had the coaxial connection. I decided not to inquire about fixing this TV, considering my prior experience. I also decided not to ask about light bulbs that were out, or lamp shades that were broken (among several...I just completed four nights at this hotel, and it is my worst hotel experience ever. This is after 500+ nights in the last ten years.Room was dirty upon arrival. Turned on the TV, did not work. I asked the front desk, and only offered to let me switch rooms (once he finally showed up to the desk). Since I already had everything unpacked, I decided to wait until the next day so they could take care of it. I came back the next evening, and the TV still did not work. When I inquired, he told me they were not able to get it to work. When I asked about another one, they said there wasn't one. When I asked about switching the TV with one that works from another room (hardly anyone staying there), I was told no to that too. Only way to rectify was to switch rooms.Once I switched rooms, the second room was dirtier than the first. It also had a one inch gap above the door. When I turned the TV on in that room, it did show the channel on the screen, but the picture was extremely fuzzy. It was an HDTV, but only had the coaxial connection. I decided not to inquire about fixing this TV, considering my prior experience. I also decided not to ask about light bulbs that were out, or lamp shades that were broken (among several things wrong).  Additionally, each day I returned from work, I found that my key would not get me in my room, so I would have to go back down to the front desk to get it recoded.  It wasn’t until Thursday evening that I figured out it was because each time I was given a key, no one knew how to program it to last until my check out.  Instead, it only lasted one day each time.At breakfast, the hot food was overcooked and old. Again, no one at the hotel, but enough food cooked for two dozen people, and must have been done right away in the morning @ 5AM. There were no hot sauces or other sauces available either. The bananas they had there had already started to rot. Staff was sitting at a table one morning all eating together in the patron area (at the only normally sized table).This brings me to my biggest disappointment of the week. At breakfast, the plastic silverware was all placed business end up in the holders. Not only is this disgusting, but it's also against health code. The only reason people do it is pure laziness (because more silverware fits in that way). Again, why do they need so much silverware when barely anyone is staying there? Laziness. When I asked the GM about it on Tuesday evening, he responded with "Oh man, they're still doing that? I already told them not to. I'll remind them". The next morning, no change. When I kindly asked the front desk girl about it (breakfast attendant nowhere to be found, ever), she responded snottily with "we can't put the silverware the other way". When I asked why, she said "because not as many fit that way". She only wanted to argue, and not take care of the customer. This didn't change the whole week.I can see why no one stays here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r461410318-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>461410318</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ok for overnighter </t>
+  </si>
+  <si>
+    <t>Called for shuttle at midnight and driver just left for night.  Took taxi for $25. I thought i read it was a couple miles from airport but was over 10 minutes drive at freeway speed. Friendly front desk staff. Room was spacious and bed was comfortable.  Fan was noisy but room got too warm without it somissed a  bit of sleep. Basic breakfast; had yogourt, cereal and juice.  Not a fan of pastries. Husband had scrambled with sausages and gave fair rating. Probably wouldnt stay again especially if I got in late.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r445766336-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>445766336</t>
+  </si>
+  <si>
+    <t>12/20/2016</t>
+  </si>
+  <si>
+    <t>Interesting Stay....Good and Bad...</t>
+  </si>
+  <si>
+    <t>We flew into IAH to cruise out of Galveston the next day. My wife and I arrived at the airport and called the hotel for the courtesy shuttle. The gentleman who answered the phone said the shuttle could take 45 minutes to arrive. The shuttle actually  arrived in about 25 minutes which was great. The shuttle driver was a very nice lady. We arrived at the hotel around 9:30 pm and the guy at the counter was fast asleep..out for the count.. sitting there with his head laid to the side. After a couple of attempts, I did manage to wake him up. He offered no apology and went ahead with the check in process which seemed a little slow because he appeared sleepy . We received our keys and had a room on the first floor. We entered our room room and there was a musty smell to it and there was circular dark stain on the carpet near the door. In the morning, we had the free breakfast which was decent. We checked out and the lady was very nice and awake.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>We flew into IAH to cruise out of Galveston the next day. My wife and I arrived at the airport and called the hotel for the courtesy shuttle. The gentleman who answered the phone said the shuttle could take 45 minutes to arrive. The shuttle actually  arrived in about 25 minutes which was great. The shuttle driver was a very nice lady. We arrived at the hotel around 9:30 pm and the guy at the counter was fast asleep..out for the count.. sitting there with his head laid to the side. After a couple of attempts, I did manage to wake him up. He offered no apology and went ahead with the check in process which seemed a little slow because he appeared sleepy . We received our keys and had a room on the first floor. We entered our room room and there was a musty smell to it and there was circular dark stain on the carpet near the door. In the morning, we had the free breakfast which was decent. We checked out and the lady was very nice and awake.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r385937120-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>385937120</t>
+  </si>
+  <si>
+    <t>06/25/2016</t>
+  </si>
+  <si>
+    <t>great service</t>
+  </si>
+  <si>
+    <t>Nice hotel comfy, I was travelin with 2 friends and they gave me a suite 2 queen beds and a sleeping couch. Breakfast with waffles , egg and meat patties cereal,fruit, pastries.Airport shuttle has a schedule from 6 am till midnight, you have to book your ride.All the staff are so corteous-!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Quality_Suites_TX744, General Manager at Quality Suites Bush/IAH Airport West, responded to this reviewResponded June 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2016</t>
+  </si>
+  <si>
+    <t>Nice hotel comfy, I was travelin with 2 friends and they gave me a suite 2 queen beds and a sleeping couch. Breakfast with waffles , egg and meat patties cereal,fruit, pastries.Airport shuttle has a schedule from 6 am till midnight, you have to book your ride.All the staff are so corteous-!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r383440742-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>383440742</t>
+  </si>
+  <si>
+    <t>06/17/2016</t>
+  </si>
+  <si>
+    <t>Adequate and comfortable stay. Great price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed an overnight here. They have a very convenient shuttle service from IAH, check in is straight forward the staff are extremely polite and friendly. Rooms (read suites) are clean and big although they do have a quirky layout, still quite comfortable.  Very few Tv channels was my only gripe here. Otherwise great place and good value. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r380708663-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>380708663</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t>Two room</t>
+  </si>
+  <si>
+    <t>I went to go to hotel by Taxi（＄22）,Because I arrived the hotel at midnight 1AM.Of cause, This hotel has the shattle from IAH. But final shattle is 23:40This room has 1bed and living.Clean and comfotable.このホテルにはシャトルがあるのですが最終23：40でした。私の到着が夜中の1時だったためタクシーで向かいました。10分ほどで＄22でした。部屋は綺麗で広くベッドルームとリビングが分かれていて大変よかったです！</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r363192451-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>363192451</t>
+  </si>
+  <si>
+    <t>04/10/2016</t>
+  </si>
+  <si>
+    <t>Convenient location for our travel route from Arkansas</t>
+  </si>
+  <si>
+    <t>Location convenient from Ark.  Very nice property. Great price, clean.  Staff friendly.  Breakfast good, add oatmeal toppings, eggs/sausage watery. No water in fitness room. No ice cream/popcorn vending.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r360046170-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>360046170</t>
+  </si>
+  <si>
+    <t>03/30/2016</t>
+  </si>
+  <si>
+    <t>Average hotel at best</t>
+  </si>
+  <si>
+    <t>Booked this hotel near IAH to overnight before a long overseas flight.  Room conditions are poor and look run down.  Breakfast selections were limited.  No business center available.  O.K. for the price paid, but I would look elsewhere next time.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r356568609-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>356568609</t>
+  </si>
+  <si>
+    <t>03/18/2016</t>
+  </si>
+  <si>
+    <t>Good layover experience</t>
+  </si>
+  <si>
+    <t>I was pleased with the free shuttle to and from the airport. It arrived fairly soon after I called for a pick up. On the way back I took an Uber cab because the earliest shuttle in the morning leaves at 0600 AM and I was worried about being late for my flight at 0850 (I haven't flown from Houston before so didn't know how long it would take to get through security). This anxiety was probably unnecessary, the shuttle would have got me there with plenty of time. The room was clean and spacious, the beds were comfortable. Wifi worked well for email. I didn't try the breakfast.The shower has a curved shower rail for extra space.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I was pleased with the free shuttle to and from the airport. It arrived fairly soon after I called for a pick up. On the way back I took an Uber cab because the earliest shuttle in the morning leaves at 0600 AM and I was worried about being late for my flight at 0850 (I haven't flown from Houston before so didn't know how long it would take to get through security). This anxiety was probably unnecessary, the shuttle would have got me there with plenty of time. The room was clean and spacious, the beds were comfortable. Wifi worked well for email. I didn't try the breakfast.The shower has a curved shower rail for extra space.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r347235577-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>347235577</t>
+  </si>
+  <si>
+    <t>02/12/2016</t>
+  </si>
+  <si>
+    <t>Great service. Professional staff.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had to spend an extra 4 days near the IAH airport prior to my flight to India. Tara and her staff were very attentive to all my needs and made me feel at home. Great value. Quiet, Comfortable room. Would recommend this location for both business and leisure travelers. </t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r343848970-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>343848970</t>
+  </si>
+  <si>
+    <t>01/30/2016</t>
+  </si>
+  <si>
+    <t>Incompetent staff and management</t>
+  </si>
+  <si>
+    <t>Due to an Air Canada baggage screwup we were forced to stay over night in Houston. The room was supposedly arranged thru Travelliance via United Airlines which routed us from Calgary to Houston. 
+We obtained a slip from United Airlines and were told to contact Travelliance for a room.  Travelliance told us we had to stay at this hotel as it was the "cheapest rate including a shuttle".  We called the hotel but there was no answer numerous times.  We were told by Travllelliance that they would not refund our money so we waited two hours for the hotel shuttle that never showed up. We finally ubered over to the hotel and were told that because the internet was out they would not honour our reservation at 1:00 a.m. in the morning!  We tried to pay cash, we tried to pay more than the rack rate for the room but we were told by "Joshua" the desk clerk that he would not give us a room no matter what!  We had no luggage, it was 1:00 a.m., and we had to fly out again at 9:00 a.m! Totally ridiculous, the internet and incompetent management brought the whole business down! The manager gave me a lousy explanation a few days later.  I would not stay here under any circumstances and I would give the entire chain a pass. Why bother when there are so many other better places to stay that...Due to an Air Canada baggage screwup we were forced to stay over night in Houston. The room was supposedly arranged thru Travelliance via United Airlines which routed us from Calgary to Houston. We obtained a slip from United Airlines and were told to contact Travelliance for a room.  Travelliance told us we had to stay at this hotel as it was the "cheapest rate including a shuttle".  We called the hotel but there was no answer numerous times.  We were told by Travllelliance that they would not refund our money so we waited two hours for the hotel shuttle that never showed up. We finally ubered over to the hotel and were told that because the internet was out they would not honour our reservation at 1:00 a.m. in the morning!  We tried to pay cash, we tried to pay more than the rack rate for the room but we were told by "Joshua" the desk clerk that he would not give us a room no matter what!  We had no luggage, it was 1:00 a.m., and we had to fly out again at 9:00 a.m! Totally ridiculous, the internet and incompetent management brought the whole business down! The manager gave me a lousy explanation a few days later.  I would not stay here under any circumstances and I would give the entire chain a pass. Why bother when there are so many other better places to stay that don't screw people around!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Due to an Air Canada baggage screwup we were forced to stay over night in Houston. The room was supposedly arranged thru Travelliance via United Airlines which routed us from Calgary to Houston. 
+We obtained a slip from United Airlines and were told to contact Travelliance for a room.  Travelliance told us we had to stay at this hotel as it was the "cheapest rate including a shuttle".  We called the hotel but there was no answer numerous times.  We were told by Travllelliance that they would not refund our money so we waited two hours for the hotel shuttle that never showed up. We finally ubered over to the hotel and were told that because the internet was out they would not honour our reservation at 1:00 a.m. in the morning!  We tried to pay cash, we tried to pay more than the rack rate for the room but we were told by "Joshua" the desk clerk that he would not give us a room no matter what!  We had no luggage, it was 1:00 a.m., and we had to fly out again at 9:00 a.m! Totally ridiculous, the internet and incompetent management brought the whole business down! The manager gave me a lousy explanation a few days later.  I would not stay here under any circumstances and I would give the entire chain a pass. Why bother when there are so many other better places to stay that...Due to an Air Canada baggage screwup we were forced to stay over night in Houston. The room was supposedly arranged thru Travelliance via United Airlines which routed us from Calgary to Houston. We obtained a slip from United Airlines and were told to contact Travelliance for a room.  Travelliance told us we had to stay at this hotel as it was the "cheapest rate including a shuttle".  We called the hotel but there was no answer numerous times.  We were told by Travllelliance that they would not refund our money so we waited two hours for the hotel shuttle that never showed up. We finally ubered over to the hotel and were told that because the internet was out they would not honour our reservation at 1:00 a.m. in the morning!  We tried to pay cash, we tried to pay more than the rack rate for the room but we were told by "Joshua" the desk clerk that he would not give us a room no matter what!  We had no luggage, it was 1:00 a.m., and we had to fly out again at 9:00 a.m! Totally ridiculous, the internet and incompetent management brought the whole business down! The manager gave me a lousy explanation a few days later.  I would not stay here under any circumstances and I would give the entire chain a pass. Why bother when there are so many other better places to stay that don't screw people around!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r333643300-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>333643300</t>
+  </si>
+  <si>
+    <t>12/18/2015</t>
+  </si>
+  <si>
+    <t>shuttle service sucks, does not feel safe</t>
+  </si>
+  <si>
+    <t>I waited at the airport for nearly an hour before the rude shuttle driver showed up. The excuse was heavy traffic while I saw other hotel shuttled come and go like 3 times.It's nothing like what is shown on the picture. It looks like a rundown place. I do not feel safe at night around here.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r311005950-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>311005950</t>
+  </si>
+  <si>
+    <t>09/16/2015</t>
+  </si>
+  <si>
+    <t>very satisfied</t>
+  </si>
+  <si>
+    <t>Great hotel at a budget price. My room/suite was large, spotless, and overlooked the pool (which was also spotless). The yellow (walls) and red (carpet) color scheme was a little glaring at first, but you get used to it. The 2 TVs and the free wifi worked perfectly. The walls could have been thicker - I could hear the TV next door when it was on - and that was annoying seeing as the neighbors had that TV on till almost 3am one night. 
+The breakfast every morning (6-9am) was free and excellent - eggs, sausage, biscuits, waffles, yogurt, pastries, toast, cereals (hot and cold), fruit, beverages. Coffee and hot water were available all day. And yes, I saw the breakfast attendant making and refilling the eggs before they ran out (great attention to detail).
+There was no restaurant in the hotel but the free shuttle was more than willing to drive you to one of dozens of restaurants within a 10 mile radius (but do your own google search - the front desk does not keep a list of every restaurant that is available). Pizza and Chinese Food could be ordered in. 
+All the staff were friendly and helpful. The front desk people were always ready to assist. And the shuttle drivers were pleasant to talk to (don't forget to tip them). When I called from the airport for the shuttle to pick me up, he was there within...Great hotel at a budget price. My room/suite was large, spotless, and overlooked the pool (which was also spotless). The yellow (walls) and red (carpet) color scheme was a little glaring at first, but you get used to it. The 2 TVs and the free wifi worked perfectly. The walls could have been thicker - I could hear the TV next door when it was on - and that was annoying seeing as the neighbors had that TV on till almost 3am one night. The breakfast every morning (6-9am) was free and excellent - eggs, sausage, biscuits, waffles, yogurt, pastries, toast, cereals (hot and cold), fruit, beverages. Coffee and hot water were available all day. And yes, I saw the breakfast attendant making and refilling the eggs before they ran out (great attention to detail).There was no restaurant in the hotel but the free shuttle was more than willing to drive you to one of dozens of restaurants within a 10 mile radius (but do your own google search - the front desk does not keep a list of every restaurant that is available). Pizza and Chinese Food could be ordered in. All the staff were friendly and helpful. The front desk people were always ready to assist. And the shuttle drivers were pleasant to talk to (don't forget to tip them). When I called from the airport for the shuttle to pick me up, he was there within 15 minutes. There was a small fitness center on the main floor with maybe 3 or 4 pieces of equipment (I didn't try it). There was an ice machine and laundry facilities at the end of my hall (I was on the second floor). Don't bother planning to go to the nearby Greenspoint Mall - the shuttle will take you there if you want, but it's more or less a waste of time unless you want to go to Macy's.This hotel is relatively close to the airport, though there are many more hotels that are even closer. You could hear some airplane noise, but it was not overwhelming, just in the background.It is a great hotel - clean, affordable, and I would recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Great hotel at a budget price. My room/suite was large, spotless, and overlooked the pool (which was also spotless). The yellow (walls) and red (carpet) color scheme was a little glaring at first, but you get used to it. The 2 TVs and the free wifi worked perfectly. The walls could have been thicker - I could hear the TV next door when it was on - and that was annoying seeing as the neighbors had that TV on till almost 3am one night. 
+The breakfast every morning (6-9am) was free and excellent - eggs, sausage, biscuits, waffles, yogurt, pastries, toast, cereals (hot and cold), fruit, beverages. Coffee and hot water were available all day. And yes, I saw the breakfast attendant making and refilling the eggs before they ran out (great attention to detail).
+There was no restaurant in the hotel but the free shuttle was more than willing to drive you to one of dozens of restaurants within a 10 mile radius (but do your own google search - the front desk does not keep a list of every restaurant that is available). Pizza and Chinese Food could be ordered in. 
+All the staff were friendly and helpful. The front desk people were always ready to assist. And the shuttle drivers were pleasant to talk to (don't forget to tip them). When I called from the airport for the shuttle to pick me up, he was there within...Great hotel at a budget price. My room/suite was large, spotless, and overlooked the pool (which was also spotless). The yellow (walls) and red (carpet) color scheme was a little glaring at first, but you get used to it. The 2 TVs and the free wifi worked perfectly. The walls could have been thicker - I could hear the TV next door when it was on - and that was annoying seeing as the neighbors had that TV on till almost 3am one night. The breakfast every morning (6-9am) was free and excellent - eggs, sausage, biscuits, waffles, yogurt, pastries, toast, cereals (hot and cold), fruit, beverages. Coffee and hot water were available all day. And yes, I saw the breakfast attendant making and refilling the eggs before they ran out (great attention to detail).There was no restaurant in the hotel but the free shuttle was more than willing to drive you to one of dozens of restaurants within a 10 mile radius (but do your own google search - the front desk does not keep a list of every restaurant that is available). Pizza and Chinese Food could be ordered in. All the staff were friendly and helpful. The front desk people were always ready to assist. And the shuttle drivers were pleasant to talk to (don't forget to tip them). When I called from the airport for the shuttle to pick me up, he was there within 15 minutes. There was a small fitness center on the main floor with maybe 3 or 4 pieces of equipment (I didn't try it). There was an ice machine and laundry facilities at the end of my hall (I was on the second floor). Don't bother planning to go to the nearby Greenspoint Mall - the shuttle will take you there if you want, but it's more or less a waste of time unless you want to go to Macy's.This hotel is relatively close to the airport, though there are many more hotels that are even closer. You could hear some airplane noise, but it was not overwhelming, just in the background.It is a great hotel - clean, affordable, and I would recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r292979380-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>292979380</t>
+  </si>
+  <si>
+    <t>07/27/2015</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>Excellent hotel to stay at. The breakfast was great along with the staff. One thing that definitely caught my attention was the fact that Tuesday thru Thursday they offer dinner to guests and beer. That to me is very generous of the hotel considering they do not market that. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Quality_Suites_TX744, General Manager at Quality Suites Bush/IAH Airport West, responded to this reviewResponded July 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2015</t>
+  </si>
+  <si>
+    <t>Excellent hotel to stay at. The breakfast was great along with the staff. One thing that definitely caught my attention was the fact that Tuesday thru Thursday they offer dinner to guests and beer. That to me is very generous of the hotel considering they do not market that. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r291596135-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>291596135</t>
+  </si>
+  <si>
+    <t>07/22/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Close to airport. </t>
+  </si>
+  <si>
+    <t>Clean, newly decorated. Comfortable beds. Good breakfast. The room was unique in that it was two separate rooms. ( one room that had been made into two) the downside to this was that the "living room" didn't have a window because it was in the bedroom.  So that part of the room seemed a little dark. A TV for each room. The most pleasant surprise was the complimentary spaghetti and meat balls served in the lobby starting at five. Really remarkably good.  Staff very helpful and friendly, really made us feel welcome. The one negative was that the room a/c unit seemed too noisy, however that did cover the jet noise. We actually turned the unit off after cooling the room down. Nice sized outdoor pool. MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality_Suites_TX744, General Manager at Quality Suites Bush/IAH Airport West, responded to this reviewResponded July 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2015</t>
+  </si>
+  <si>
+    <t>Clean, newly decorated. Comfortable beds. Good breakfast. The room was unique in that it was two separate rooms. ( one room that had been made into two) the downside to this was that the "living room" didn't have a window because it was in the bedroom.  So that part of the room seemed a little dark. A TV for each room. The most pleasant surprise was the complimentary spaghetti and meat balls served in the lobby starting at five. Really remarkably good.  Staff very helpful and friendly, really made us feel welcome. The one negative was that the room a/c unit seemed too noisy, however that did cover the jet noise. We actually turned the unit off after cooling the room down. Nice sized outdoor pool. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r268430368-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>268430368</t>
+  </si>
+  <si>
+    <t>04/27/2015</t>
+  </si>
+  <si>
+    <t>Friendly staff, nice hotel</t>
+  </si>
+  <si>
+    <t>My husband and I had to stay an unexpected night at this hotel this past Saturday night (April 25, 2015) after we missed our connecting flight back home to South Carolina when we were traveling back from Las Vegas. We were shuttled to this hotel from the airport on a van with a friend who was traveling with us and one other couple we did not know who also missed their connecting flight. The driver was super nice and helpful, and on the way to the hotel even offered to stop us at a restaurant since there were none close to the hotel - since it was after 9 p.m. and we were all frustrated and worn out, we all declined but he let us know about the two places that deliver food late to the hotel (a pizza place and a Chinese restaurant). When we got to the hotel, our little group were the only ones checking in at the moment but it took a little while because United Airlines had major issues that evening with different flights that caused many of us to need a room there. Because of this the young lady working the front desk was constantly having to answer the phone to take reservations and schedule more shuttle pick ups. Even still she remained very positive and very friendly - we totally understood waiting a few minutes longer to get checked in because the poor...My husband and I had to stay an unexpected night at this hotel this past Saturday night (April 25, 2015) after we missed our connecting flight back home to South Carolina when we were traveling back from Las Vegas. We were shuttled to this hotel from the airport on a van with a friend who was traveling with us and one other couple we did not know who also missed their connecting flight. The driver was super nice and helpful, and on the way to the hotel even offered to stop us at a restaurant since there were none close to the hotel - since it was after 9 p.m. and we were all frustrated and worn out, we all declined but he let us know about the two places that deliver food late to the hotel (a pizza place and a Chinese restaurant). When we got to the hotel, our little group were the only ones checking in at the moment but it took a little while because United Airlines had major issues that evening with different flights that caused many of us to need a room there. Because of this the young lady working the front desk was constantly having to answer the phone to take reservations and schedule more shuttle pick ups. Even still she remained very positive and very friendly - we totally understood waiting a few minutes longer to get checked in because the poor thing was swamped. Anyhow, she checked us in quickly and was very sweet. Our room was a nice suite with a king bed. I thought everything was really nice, except the shower floor was a little dirty looking around the drain. I made sure to take a shower in it instead of a bath but other than that the room was nice to me. We weren't there long because we had to get up early the next morning to get back to IAH to get on our rescheduled flight back home, so I don't know anything about the pool or anything like that. We did eat the continental breakfast which was pretty good. The shuttle driver who picked us up the next morning to take us to IAH was a different person and she was also wonderful. In fact, my husband realized he left his phone on the backseat of the van and she brought it back to the airport quickly after he called her which we immensely appreciated. The friendly staff at this hotel really made a rough night much more bearable!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Quality_Suites_TX744, General Manager at Quality Suites Bush/IAH Airport West, responded to this reviewResponded July 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2015</t>
+  </si>
+  <si>
+    <t>My husband and I had to stay an unexpected night at this hotel this past Saturday night (April 25, 2015) after we missed our connecting flight back home to South Carolina when we were traveling back from Las Vegas. We were shuttled to this hotel from the airport on a van with a friend who was traveling with us and one other couple we did not know who also missed their connecting flight. The driver was super nice and helpful, and on the way to the hotel even offered to stop us at a restaurant since there were none close to the hotel - since it was after 9 p.m. and we were all frustrated and worn out, we all declined but he let us know about the two places that deliver food late to the hotel (a pizza place and a Chinese restaurant). When we got to the hotel, our little group were the only ones checking in at the moment but it took a little while because United Airlines had major issues that evening with different flights that caused many of us to need a room there. Because of this the young lady working the front desk was constantly having to answer the phone to take reservations and schedule more shuttle pick ups. Even still she remained very positive and very friendly - we totally understood waiting a few minutes longer to get checked in because the poor...My husband and I had to stay an unexpected night at this hotel this past Saturday night (April 25, 2015) after we missed our connecting flight back home to South Carolina when we were traveling back from Las Vegas. We were shuttled to this hotel from the airport on a van with a friend who was traveling with us and one other couple we did not know who also missed their connecting flight. The driver was super nice and helpful, and on the way to the hotel even offered to stop us at a restaurant since there were none close to the hotel - since it was after 9 p.m. and we were all frustrated and worn out, we all declined but he let us know about the two places that deliver food late to the hotel (a pizza place and a Chinese restaurant). When we got to the hotel, our little group were the only ones checking in at the moment but it took a little while because United Airlines had major issues that evening with different flights that caused many of us to need a room there. Because of this the young lady working the front desk was constantly having to answer the phone to take reservations and schedule more shuttle pick ups. Even still she remained very positive and very friendly - we totally understood waiting a few minutes longer to get checked in because the poor thing was swamped. Anyhow, she checked us in quickly and was very sweet. Our room was a nice suite with a king bed. I thought everything was really nice, except the shower floor was a little dirty looking around the drain. I made sure to take a shower in it instead of a bath but other than that the room was nice to me. We weren't there long because we had to get up early the next morning to get back to IAH to get on our rescheduled flight back home, so I don't know anything about the pool or anything like that. We did eat the continental breakfast which was pretty good. The shuttle driver who picked us up the next morning to take us to IAH was a different person and she was also wonderful. In fact, my husband realized he left his phone on the backseat of the van and she brought it back to the airport quickly after he called her which we immensely appreciated. The friendly staff at this hotel really made a rough night much more bearable!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r250453913-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>250453913</t>
+  </si>
+  <si>
+    <t>01/22/2015</t>
+  </si>
+  <si>
+    <t>Good hotel for short stay</t>
+  </si>
+  <si>
+    <t>I have stayed in this hotel for few days during 1st week of Jan 15. It is near to International airport. Small business type hotel. The room was clean &amp; good. They have heater / AC  with TV and other basic amenities. They don t have a restaurant which has to be ordered outside. But they serve complimentary break fast with few items along with Coffee.My experience was good as our office was next door and prefer to stay close to the airport. The front desk lady was really nice. She even offered her mobile phone to me so that i can call my family back in India. My international roaming did not work. People working there were very friendly and courteous.I had no problem in the Wifi. It worked well for both the nights.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>I have stayed in this hotel for few days during 1st week of Jan 15. It is near to International airport. Small business type hotel. The room was clean &amp; good. They have heater / AC  with TV and other basic amenities. They don t have a restaurant which has to be ordered outside. But they serve complimentary break fast with few items along with Coffee.My experience was good as our office was next door and prefer to stay close to the airport. The front desk lady was really nice. She even offered her mobile phone to me so that i can call my family back in India. My international roaming did not work. People working there were very friendly and courteous.I had no problem in the Wifi. It worked well for both the nights.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r248708749-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>248708749</t>
+  </si>
+  <si>
+    <t>01/10/2015</t>
+  </si>
+  <si>
+    <t>Nice Hotel, Nice People, Some Service Lacking</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at Quality Suites Bush/IAH.  The hotel was fine.  The desk folks were friendly.  The room was clean and well cared for.  So far so good.  Turned on the TV.  All the channels were fuzzy.  So, I wanted to check my email from our 2nd floor room.  My laptop would not connect (It's a 1-year-old Lenovo that works everywhere.)  I could see 3 wifi connections from the hotel.  The strongest would't accept the password provided.  The second strongest would connect but had no internet service.  I called the front desk.  The clerk's reply = "I'm on the wifi down here and it's working fine."  (That was the 3rd wifi I could see but was out of range from the 2nd floor.)  No offer to try to fix anything or try anything.  Just customer no-service.  I expect more from a decent hotel.  Sure enough, the next morning, I took my wifi down stairs where the clerk was able to connect and it did work down there.  Not much help to me the night before!!!  Major service FAIL Quality Inn and Choice Hotels!MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at Quality Suites Bush/IAH.  The hotel was fine.  The desk folks were friendly.  The room was clean and well cared for.  So far so good.  Turned on the TV.  All the channels were fuzzy.  So, I wanted to check my email from our 2nd floor room.  My laptop would not connect (It's a 1-year-old Lenovo that works everywhere.)  I could see 3 wifi connections from the hotel.  The strongest would't accept the password provided.  The second strongest would connect but had no internet service.  I called the front desk.  The clerk's reply = "I'm on the wifi down here and it's working fine."  (That was the 3rd wifi I could see but was out of range from the 2nd floor.)  No offer to try to fix anything or try anything.  Just customer no-service.  I expect more from a decent hotel.  Sure enough, the next morning, I took my wifi down stairs where the clerk was able to connect and it did work down there.  Not much help to me the night before!!!  Major service FAIL Quality Inn and Choice Hotels!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r235731221-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>235731221</t>
+  </si>
+  <si>
+    <t>10/22/2014</t>
+  </si>
+  <si>
+    <t>General Manager needs better customer service</t>
+  </si>
+  <si>
+    <t>My stay at the hotel was great. Front desk agents Katrina,Danelle,Lucile,and a few others were awesome.However when dealing with there General Manager Tara Wagner I had an issue with one of the front desk agents. WHEN I  tried to talk to Tara I was informed to make it short cause she was going to be late picking up her kids so to me this ment rush what you have to say and I ment nothing to her even after spending over 2,000.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r234740207-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>234740207</t>
+  </si>
+  <si>
+    <t>10/16/2014</t>
+  </si>
+  <si>
+    <t>Nasty shower (makes me question the carpeting), missing remote,</t>
+  </si>
+  <si>
+    <t>Nasty shower (makes me question the carpeting), missing remote, not what I need when I'm exhausted and get to my room on a business trip.  Nicely painted (newer?) it seemed, otherwise not bad, but the shower/tub needed to be replaced (not sure it was actually unclean, just beat up, old, patched, peeled...not what I want to see in the morning an put my feet into).  The missing remote for the bedroom TV is inexcusable.  Staff was nice enough.  Only ended up here because there wasn't a single room in Houston other than a Motel 6.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r234562834-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>234562834</t>
+  </si>
+  <si>
+    <t>10/15/2014</t>
+  </si>
+  <si>
+    <t>Do NOT book a group here!</t>
+  </si>
+  <si>
+    <t>Prior to our wedding weekend, members of my wedding party ere having the hardest time getting a hold of the general manager. I later learned from them that It would take her over a week to return their emails or text messages. When the wedding weekend came the problems got worse. Every afternoon, about half of our room key cards would deactivate so we would have to go down to the front desk to get them turned back on. Finally, I was charged over $800 for rooms I did not sign the contract for. Meanwhile, one of the bridesmaids was charged for three nights when she should've been charged for one night. I tried to get this straightened out with the front desk THREE TIMES in a twelve hour period, one being my wedding night. By the third time, I was upset. The general manager had the nerve to calm down and that it was not a big deal. She then proceeded to refer to me as a Type A person while typing on her computer. She behaved as if I was overreacting about an extra $810 of room charges. My bridesmaid and I are still trying to get our charges corrected 2 days later.MoreShow less</t>
+  </si>
+  <si>
+    <t>Prior to our wedding weekend, members of my wedding party ere having the hardest time getting a hold of the general manager. I later learned from them that It would take her over a week to return their emails or text messages. When the wedding weekend came the problems got worse. Every afternoon, about half of our room key cards would deactivate so we would have to go down to the front desk to get them turned back on. Finally, I was charged over $800 for rooms I did not sign the contract for. Meanwhile, one of the bridesmaids was charged for three nights when she should've been charged for one night. I tried to get this straightened out with the front desk THREE TIMES in a twelve hour period, one being my wedding night. By the third time, I was upset. The general manager had the nerve to calm down and that it was not a big deal. She then proceeded to refer to me as a Type A person while typing on her computer. She behaved as if I was overreacting about an extra $810 of room charges. My bridesmaid and I are still trying to get our charges corrected 2 days later.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r228517192-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>228517192</t>
+  </si>
+  <si>
+    <t>09/12/2014</t>
+  </si>
+  <si>
+    <t>Very nice place to spent the night</t>
+  </si>
+  <si>
+    <t>Due to a bad situation with United Airlines they put us in Quality Suites close to the airport.  It was a very nice suite.  Had a parlor room with large TV and another large TV in sleeping room.Nice, clean, quite, comfortable and a nice continental breakfast the next morning.  Thanks for making our stay a great one.R. HuntMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Quality_Suites_TX744, General Manager at Quality Suites Bush/IAH Airport West, responded to this reviewResponded September 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2014</t>
+  </si>
+  <si>
+    <t>Due to a bad situation with United Airlines they put us in Quality Suites close to the airport.  It was a very nice suite.  Had a parlor room with large TV and another large TV in sleeping room.Nice, clean, quite, comfortable and a nice continental breakfast the next morning.  Thanks for making our stay a great one.R. HuntMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r226411769-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>226411769</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>From shuttle driver to checkout, a good experience</t>
+  </si>
+  <si>
+    <t>Although the shuttle seemed to take forever for pickup (several calls had to be made), the driver was super friendly, and she was really sweet.  The hotel is a few miles from IAH, but serves the purpose for an overnight layover.  After what was a long trip, it was nice to walk into a clean, airy, and for a Quality brand, very modern hotel.  The room was great, although bed was somewhat hard.  The free beers on ice and chicken salad sandwiches in the lobby were a very nice touch.  Just wish there were restaurants within walking distance of the property.  The shuttle driver offered to take us, but we were beat and just wanted to eat and go to bed.  I'd stay again here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Although the shuttle seemed to take forever for pickup (several calls had to be made), the driver was super friendly, and she was really sweet.  The hotel is a few miles from IAH, but serves the purpose for an overnight layover.  After what was a long trip, it was nice to walk into a clean, airy, and for a Quality brand, very modern hotel.  The room was great, although bed was somewhat hard.  The free beers on ice and chicken salad sandwiches in the lobby were a very nice touch.  Just wish there were restaurants within walking distance of the property.  The shuttle driver offered to take us, but we were beat and just wanted to eat and go to bed.  I'd stay again here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r215817602-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>215817602</t>
+  </si>
+  <si>
+    <t>07/16/2014</t>
+  </si>
+  <si>
+    <t>CAR BROKE INTO</t>
+  </si>
+  <si>
+    <t>I suggest that you do not leave your car parked at this hotel.  My auto was broke into and now it will cost me more money to get my lock replaced than it was to park my car there.  This is not a good deal and I suggest that you park your car at one of the many gated/security parking areas to avoid this problem.  The hotel staff did not offer to help me out on this either.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r201066750-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>201066750</t>
+  </si>
+  <si>
+    <t>04/14/2014</t>
+  </si>
+  <si>
+    <t>Great one night stay.</t>
+  </si>
+  <si>
+    <t>The room was very spacious. It has a living room and bed room area which was pretty nice.  I also used the shuttle service. The driver I believe her name was Betheny was very friendly and easy to talk to. I had no problems with anything. Great stay for a nightMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Quality_Suites_TX744, General Manager at Quality Suites Bush/IAH Airport West, responded to this reviewResponded April 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2014</t>
+  </si>
+  <si>
+    <t>The room was very spacious. It has a living room and bed room area which was pretty nice.  I also used the shuttle service. The driver I believe her name was Betheny was very friendly and easy to talk to. I had no problems with anything. Great stay for a nightMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r200609042-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>200609042</t>
+  </si>
+  <si>
+    <t>04/10/2014</t>
+  </si>
+  <si>
+    <t>I Loved It!</t>
+  </si>
+  <si>
+    <t>The room looked just like the pictures. Very spacious and very clean. It felt very much like home and it was very comfortable. My daughter had plenty of room to run around and play. The beds were very comfortable and so was the couch/sofabed. The staff was very friendly and very underatanding. I also appreciated the shuttle from the airport, he was very friendly as well and carried all of my luggage. I'd definately come here next time I'm in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality_Suites_TX744, General Manager at Quality Suites Bush/IAH Airport West, responded to this reviewResponded April 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2014</t>
+  </si>
+  <si>
+    <t>The room looked just like the pictures. Very spacious and very clean. It felt very much like home and it was very comfortable. My daughter had plenty of room to run around and play. The beds were very comfortable and so was the couch/sofabed. The staff was very friendly and very underatanding. I also appreciated the shuttle from the airport, he was very friendly as well and carried all of my luggage. I'd definately come here next time I'm in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r198753414-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>198753414</t>
+  </si>
+  <si>
+    <t>03/26/2014</t>
+  </si>
+  <si>
+    <t>Big group, unexpected stop, no problem for the staff at Quality Suites</t>
+  </si>
+  <si>
+    <t>Our group of 22 students was delayed on our international flight and had to spend an extra night in Houston.  Our hosts at Quality Suites took our unfortunate experience and helped us turn it positive.  Their dedication to customer service was amazing.  They definitely went over and above any expectations I had.  I would recommend this hotel to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Our group of 22 students was delayed on our international flight and had to spend an extra night in Houston.  Our hosts at Quality Suites took our unfortunate experience and helped us turn it positive.  Their dedication to customer service was amazing.  They definitely went over and above any expectations I had.  I would recommend this hotel to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r191997578-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>191997578</t>
+  </si>
+  <si>
+    <t>01/25/2014</t>
+  </si>
+  <si>
+    <t>Shuttle Issues</t>
+  </si>
+  <si>
+    <t>I was bumped off a United Flight and had to stay at this property.  It was already late evening and we were tired.  We called the hotel for a shuttle and we were told the shuttle would be arriving soon.  We waited over an hour and there was no shuttle.  We were going to take a cab but fortunately the Marriott shuttle volunteered to bring us to the room.  When we finally got to our rooms and settled the fire alarm went off briefly.  After it shut off so quickly I went back to bed.  About 10 minutes later there was a knock on my door from another guest telling me to get out because there was indeed a fire.  The fire was a result of a poorly maintained heating unit that the hotel knew about.  We spend over an hour on the front lawn with no information from hotel management.  We were finally allowed back in our rooms by the firemen.  We were offered no accommodations for our trouble.  The management was rude when we inquired about this issue in the morning.  We were actually told by them that they turned off the fire alarm because they were not worried about the issue even though the whole 2nd floor was filled with smoke.  
+The next morning the shuttle I signed up for was over 30 minutes late which nearly caused me to miss my flight.
+If United tries to...I was bumped off a United Flight and had to stay at this property.  It was already late evening and we were tired.  We called the hotel for a shuttle and we were told the shuttle would be arriving soon.  We waited over an hour and there was no shuttle.  We were going to take a cab but fortunately the Marriott shuttle volunteered to bring us to the room.  When we finally got to our rooms and settled the fire alarm went off briefly.  After it shut off so quickly I went back to bed.  About 10 minutes later there was a knock on my door from another guest telling me to get out because there was indeed a fire.  The fire was a result of a poorly maintained heating unit that the hotel knew about.  We spend over an hour on the front lawn with no information from hotel management.  We were finally allowed back in our rooms by the firemen.  We were offered no accommodations for our trouble.  The management was rude when we inquired about this issue in the morning.  We were actually told by them that they turned off the fire alarm because they were not worried about the issue even though the whole 2nd floor was filled with smoke.  The next morning the shuttle I signed up for was over 30 minutes late which nearly caused me to miss my flight.If United tries to send you to this place I would show them this review and strongly disagree.  There is a Marriott attached to the airport which I have had other airlines put me in and it is excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Operations V, General Manager at Quality Suites Bush/IAH Airport West, responded to this reviewResponded February 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 17, 2014</t>
+  </si>
+  <si>
+    <t>I was bumped off a United Flight and had to stay at this property.  It was already late evening and we were tired.  We called the hotel for a shuttle and we were told the shuttle would be arriving soon.  We waited over an hour and there was no shuttle.  We were going to take a cab but fortunately the Marriott shuttle volunteered to bring us to the room.  When we finally got to our rooms and settled the fire alarm went off briefly.  After it shut off so quickly I went back to bed.  About 10 minutes later there was a knock on my door from another guest telling me to get out because there was indeed a fire.  The fire was a result of a poorly maintained heating unit that the hotel knew about.  We spend over an hour on the front lawn with no information from hotel management.  We were finally allowed back in our rooms by the firemen.  We were offered no accommodations for our trouble.  The management was rude when we inquired about this issue in the morning.  We were actually told by them that they turned off the fire alarm because they were not worried about the issue even though the whole 2nd floor was filled with smoke.  
+The next morning the shuttle I signed up for was over 30 minutes late which nearly caused me to miss my flight.
+If United tries to...I was bumped off a United Flight and had to stay at this property.  It was already late evening and we were tired.  We called the hotel for a shuttle and we were told the shuttle would be arriving soon.  We waited over an hour and there was no shuttle.  We were going to take a cab but fortunately the Marriott shuttle volunteered to bring us to the room.  When we finally got to our rooms and settled the fire alarm went off briefly.  After it shut off so quickly I went back to bed.  About 10 minutes later there was a knock on my door from another guest telling me to get out because there was indeed a fire.  The fire was a result of a poorly maintained heating unit that the hotel knew about.  We spend over an hour on the front lawn with no information from hotel management.  We were finally allowed back in our rooms by the firemen.  We were offered no accommodations for our trouble.  The management was rude when we inquired about this issue in the morning.  We were actually told by them that they turned off the fire alarm because they were not worried about the issue even though the whole 2nd floor was filled with smoke.  The next morning the shuttle I signed up for was over 30 minutes late which nearly caused me to miss my flight.If United tries to send you to this place I would show them this review and strongly disagree.  There is a Marriott attached to the airport which I have had other airlines put me in and it is excellent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r191485238-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>191485238</t>
+  </si>
+  <si>
+    <t>01/20/2014</t>
+  </si>
+  <si>
+    <t>Obviously improving and getting better.</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here on January 15, 2013. We had a layover on our way to Cancun, we were greeted warmly by the shuttle driver right outside the terminal door, quickly taken to the hotel after a couple pick-ups. The previous reviewer mentioned the 2 different shuttles, and yes, one of the shuttles is a mini-van with less that clear signage, but our driver got out of the shuttle at the curbside and walked through saying our names so it was easy to identify where we were to go, they also had door signs on the mini-van the next morning.Check in was seamless and very friendly, front desk staff was extremely helpful. It is obvious that the property has undergone some improvements, our room was very clean, very nicely prepared for our arrival and no red flags that might have warned me of an issue. The next morning breakfast was nice and simple, several options available.If you expect a 50-star resort hotel, you will be disapointed obviously. If you expect a stop-over airport hotel, you will be impressed, so make sure your expectations are realistic.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here on January 15, 2013. We had a layover on our way to Cancun, we were greeted warmly by the shuttle driver right outside the terminal door, quickly taken to the hotel after a couple pick-ups. The previous reviewer mentioned the 2 different shuttles, and yes, one of the shuttles is a mini-van with less that clear signage, but our driver got out of the shuttle at the curbside and walked through saying our names so it was easy to identify where we were to go, they also had door signs on the mini-van the next morning.Check in was seamless and very friendly, front desk staff was extremely helpful. It is obvious that the property has undergone some improvements, our room was very clean, very nicely prepared for our arrival and no red flags that might have warned me of an issue. The next morning breakfast was nice and simple, several options available.If you expect a 50-star resort hotel, you will be disapointed obviously. If you expect a stop-over airport hotel, you will be impressed, so make sure your expectations are realistic.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r190661378-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>190661378</t>
+  </si>
+  <si>
+    <t>01/12/2014</t>
+  </si>
+  <si>
+    <t>I loved staying at this place</t>
+  </si>
+  <si>
+    <t>This was by far one of the best places I have stayed.  The room was very clean, nicely furnished with modern decor.  Breakfast was good. The G.M. Tara, was very professional and personable who cares about her guest. I was lucky to come at a time when there was a transition period with new management and caught a good rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>This was by far one of the best places I have stayed.  The room was very clean, nicely furnished with modern decor.  Breakfast was good. The G.M. Tara, was very professional and personable who cares about her guest. I was lucky to come at a time when there was a transition period with new management and caught a good rate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r183769184-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>183769184</t>
+  </si>
+  <si>
+    <t>11/06/2013</t>
+  </si>
+  <si>
+    <t>They are coming back strong</t>
+  </si>
+  <si>
+    <t>This motel is reacting aggressively to right itself in the IAH motel marketplace.  We were hesitent toward staying and the Desk Mgr asked us to come by and see how they are improving.  New carpet, new paint and a new attitude (from previous reviews) is very apparent.  The rooms are true, multi-room suites and clean.  They have a social time in the late afternoon that was classy and tasty.  The price of the stay was, hands-down the best to be found at IAH.  You will be remiss if you don't give this motel a second chance.MoreShow less</t>
+  </si>
+  <si>
+    <t>This motel is reacting aggressively to right itself in the IAH motel marketplace.  We were hesitent toward staying and the Desk Mgr asked us to come by and see how they are improving.  New carpet, new paint and a new attitude (from previous reviews) is very apparent.  The rooms are true, multi-room suites and clean.  They have a social time in the late afternoon that was classy and tasty.  The price of the stay was, hands-down the best to be found at IAH.  You will be remiss if you don't give this motel a second chance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r183073804-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>183073804</t>
+  </si>
+  <si>
+    <t>10/31/2013</t>
+  </si>
+  <si>
+    <t>Excellent service</t>
+  </si>
+  <si>
+    <t>Effortless warmth and candor adorned the courteous service I received starting from being  picked up from and returned to the airport .  The Manager and her staff made the hotel experience comfortable.   This hotel was assigned by United Airlines having been left during my connection en route to my overseas trip.   Although this delay of two days posed a lot of inconvenience, the friendliness of the staff at Quality Suites made the time tolerable.   Since most people in this situation are from out of town and many, like me, may not be familiar with the city of Houston, it might be a good idea for the team of United Airlines and Quality Suites to consider "day trips" to Houston for interested passengers.  I believe that this act will not only make the "medicine go down" it might also be a point to brag about as well as an edge over other teams.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Effortless warmth and candor adorned the courteous service I received starting from being  picked up from and returned to the airport .  The Manager and her staff made the hotel experience comfortable.   This hotel was assigned by United Airlines having been left during my connection en route to my overseas trip.   Although this delay of two days posed a lot of inconvenience, the friendliness of the staff at Quality Suites made the time tolerable.   Since most people in this situation are from out of town and many, like me, may not be familiar with the city of Houston, it might be a good idea for the team of United Airlines and Quality Suites to consider "day trips" to Houston for interested passengers.  I believe that this act will not only make the "medicine go down" it might also be a point to brag about as well as an edge over other teams.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r182833709-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>182833709</t>
+  </si>
+  <si>
+    <t>10/29/2013</t>
+  </si>
+  <si>
+    <t>Poorly run, dirty, and poorly maintained</t>
+  </si>
+  <si>
+    <t>Our contact with this hotel began with a pick up at the airport by an unmarked mini-van.  When I asked why it was an unmarked mini-van,  we were told that the regular van was being repaired and the magnetic sign with the hotel name fell off. Now that I read the other reviews, I see that the mini-van has been in existence for a long time and is obviously not "being repaired". Upon arriving in our room I noticed that the toilet seat was up and appeared to have been used and not cleaned.  Then I noticed the bed was sloppily "made" and when I pulled back the sheets I could see that they were dirty and stained.  So I asked the woman at the desk (the same woman who picked us up at the airport and checked us in) to get clean sheets.  She then came into the room with clean bedding and put it on the dirty floor while she stripped the bed and made it up again. I was grossed out that she put the clean bedding on the floor but didn't say anything because I was comfortable doing only so much complaining). Then I noticed other things: stains on the sofa, dried spills on the coffee table, the empty tissue dispenser, toothpaste smeared into the carpet near the sink, and a leaky tub faucet.  In the morning I went to have breakfast at 8 am. There...Our contact with this hotel began with a pick up at the airport by an unmarked mini-van.  When I asked why it was an unmarked mini-van,  we were told that the regular van was being repaired and the magnetic sign with the hotel name fell off. Now that I read the other reviews, I see that the mini-van has been in existence for a long time and is obviously not "being repaired". Upon arriving in our room I noticed that the toilet seat was up and appeared to have been used and not cleaned.  Then I noticed the bed was sloppily "made" and when I pulled back the sheets I could see that they were dirty and stained.  So I asked the woman at the desk (the same woman who picked us up at the airport and checked us in) to get clean sheets.  She then came into the room with clean bedding and put it on the dirty floor while she stripped the bed and made it up again. I was grossed out that she put the clean bedding on the floor but didn't say anything because I was comfortable doing only so much complaining). Then I noticed other things: stains on the sofa, dried spills on the coffee table, the empty tissue dispenser, toothpaste smeared into the carpet near the sink, and a leaky tub faucet.  In the morning I went to have breakfast at 8 am. There were no eggs left but a woman reassured me that they would make some more.  But there was no more sausage or yogurt  and no more in stock. As I sat there eating my eggs, I watched a man literally fall on the floor as his chair collapsed under him and broke apart. This place is clearly under-staffed and poorly maintained and the cleaning is sub-par.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our contact with this hotel began with a pick up at the airport by an unmarked mini-van.  When I asked why it was an unmarked mini-van,  we were told that the regular van was being repaired and the magnetic sign with the hotel name fell off. Now that I read the other reviews, I see that the mini-van has been in existence for a long time and is obviously not "being repaired". Upon arriving in our room I noticed that the toilet seat was up and appeared to have been used and not cleaned.  Then I noticed the bed was sloppily "made" and when I pulled back the sheets I could see that they were dirty and stained.  So I asked the woman at the desk (the same woman who picked us up at the airport and checked us in) to get clean sheets.  She then came into the room with clean bedding and put it on the dirty floor while she stripped the bed and made it up again. I was grossed out that she put the clean bedding on the floor but didn't say anything because I was comfortable doing only so much complaining). Then I noticed other things: stains on the sofa, dried spills on the coffee table, the empty tissue dispenser, toothpaste smeared into the carpet near the sink, and a leaky tub faucet.  In the morning I went to have breakfast at 8 am. There...Our contact with this hotel began with a pick up at the airport by an unmarked mini-van.  When I asked why it was an unmarked mini-van,  we were told that the regular van was being repaired and the magnetic sign with the hotel name fell off. Now that I read the other reviews, I see that the mini-van has been in existence for a long time and is obviously not "being repaired". Upon arriving in our room I noticed that the toilet seat was up and appeared to have been used and not cleaned.  Then I noticed the bed was sloppily "made" and when I pulled back the sheets I could see that they were dirty and stained.  So I asked the woman at the desk (the same woman who picked us up at the airport and checked us in) to get clean sheets.  She then came into the room with clean bedding and put it on the dirty floor while she stripped the bed and made it up again. I was grossed out that she put the clean bedding on the floor but didn't say anything because I was comfortable doing only so much complaining). Then I noticed other things: stains on the sofa, dried spills on the coffee table, the empty tissue dispenser, toothpaste smeared into the carpet near the sink, and a leaky tub faucet.  In the morning I went to have breakfast at 8 am. There were no eggs left but a woman reassured me that they would make some more.  But there was no more sausage or yogurt  and no more in stock. As I sat there eating my eggs, I watched a man literally fall on the floor as his chair collapsed under him and broke apart. This place is clearly under-staffed and poorly maintained and the cleaning is sub-par.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r155657063-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155657063</t>
+  </si>
+  <si>
+    <t>03/25/2013</t>
+  </si>
+  <si>
+    <t>Seems they just don't care</t>
+  </si>
+  <si>
+    <t>I was booked at this hotel by United Air after missing a connection. There were 2 young ladies on duty when I checked in and both were very pleasant. The room was actually a suite. Very large, 2 rooms.The amenities were average. That is all the good parts. Although the room looked fairly clean, I wonder after noticing old, partly consumed  food in the refrigerator. There were 2 phones, one in each room, neither of which worked! No clock and the TV had wrong date and time. The furniture was run down and the dresser had a handle that was hanging down with one end completely loose. Yes there is an airport shuttle which is a 5 passenger minivan that runs from 6am-10pm, only. Normally in this situation I just want a clean bed, but this place is so glaringly bad , I felt I had to write this review. I honestly don't know how they get to keep the Quality franchiseMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>I was booked at this hotel by United Air after missing a connection. There were 2 young ladies on duty when I checked in and both were very pleasant. The room was actually a suite. Very large, 2 rooms.The amenities were average. That is all the good parts. Although the room looked fairly clean, I wonder after noticing old, partly consumed  food in the refrigerator. There were 2 phones, one in each room, neither of which worked! No clock and the TV had wrong date and time. The furniture was run down and the dresser had a handle that was hanging down with one end completely loose. Yes there is an airport shuttle which is a 5 passenger minivan that runs from 6am-10pm, only. Normally in this situation I just want a clean bed, but this place is so glaringly bad , I felt I had to write this review. I honestly don't know how they get to keep the Quality franchiseMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r142824433-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>142824433</t>
+  </si>
+  <si>
+    <t>10/14/2012</t>
+  </si>
+  <si>
+    <t>Dripping tub and roaches</t>
+  </si>
+  <si>
+    <t>The room was spacious and clean, but the tub faucet leaked. My husband and I work in the hotel industry and realize that sometimes maintenance does not have time to fix everything, so we were alright with it.  However, after we arrived back to the hotel on the second day we saw live roaches in the room.  Makes me wonder if they have been spraying for bugs.The staff we met, was friendly and courteous.  I believe they are doing what they can to make our stay pleasant.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r141323460-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>141323460</t>
+  </si>
+  <si>
+    <t>09/26/2012</t>
+  </si>
+  <si>
+    <t>Nasty rooms</t>
+  </si>
+  <si>
+    <t>We normally get a room close to airport with no reservation, for some reason most had no available rooms. We saw this hotel and it has a now open sign so instantly we thought "new". The lobby may be new but the too s were disgusting, there was a nasty couch that had horrible stains and the furniture was soo beat up.  Would NEVER recommend this place to anyone and I would never even think of staying at another Quality Inn Hotel Just Nasty and awful!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r17418844-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>17418844</t>
+  </si>
+  <si>
+    <t>07/01/2008</t>
+  </si>
+  <si>
+    <t>Beware your car</t>
+  </si>
+  <si>
+    <t>It is a case of you get what you pay for.  We were having car problems so we stopped at the nearest hotel that just happened to be this one.  We requested a room with a roll out couch but the couch didn't roll out in the first room we were given.   After we moved all of our stuff to a different room, it turned out that it didn't roll out either.  Our third room we were given was ok.  The beds were ok.  The breakfast was pretty good.   The next morning we found that our car was burglarized and they took 2 playstation 2's, a camera, and over 75 DVD movies.  I even parked right by the door and right under a light!  I know this isn't the hotel's responsiblity but maybe their location isn't the best.  We will not return.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>It is a case of you get what you pay for.  We were having car problems so we stopped at the nearest hotel that just happened to be this one.  We requested a room with a roll out couch but the couch didn't roll out in the first room we were given.   After we moved all of our stuff to a different room, it turned out that it didn't roll out either.  Our third room we were given was ok.  The beds were ok.  The breakfast was pretty good.   The next morning we found that our car was burglarized and they took 2 playstation 2's, a camera, and over 75 DVD movies.  I even parked right by the door and right under a light!  I know this isn't the hotel's responsiblity but maybe their location isn't the best.  We will not return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r5505727-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>5505727</t>
+  </si>
+  <si>
+    <t>07/23/2006</t>
+  </si>
+  <si>
+    <t>A few negatives but positives balanced this out</t>
+  </si>
+  <si>
+    <t>To avoid waiting 20-30 minutes after calling for the free shuttle from the airport, call the desk the day before arrival. We spent about 45 minutes amidst the heat, exhaust fumes from other hotel's shuttle vans, buses, etc. before being picked up. We kept looking for their shuttle and finally called their front desk clerk.
+Fortunately, we were allowed to check-in several hours before the official check-in time.  After a long flight and time zone changes, we were very happy for this indulgence.
+The value for the money paid to stay at this Quality Suites was a good return. The complimentary breakfast had cute Texas shaped waffles, as well as the usual bacon, sausages, and scrambled eggs with bread &amp; cereal products. The 2 room suite was sufficiently large. There was a small refrigerator to hold our soft drinks and meal leftovers. Two large televisions was also a surprise. Both double beds were firm and didn't sag in any spots. There's a public access high-speed cable connected computer for use, as well as free cable connection if you brought your own computer.
+The room carpeting desperately needed shampooing and cleaning. My toddler daughter wore white socks that became rather black while walking around in our rooms.
+The air conditioner sturdily kept the bedroom cold but the ventilating fan connecting the bedroom to the living room didn't work. So, the living room was much warmer and sometimes uncomfortable unless we froze...To avoid waiting 20-30 minutes after calling for the free shuttle from the airport, call the desk the day before arrival. We spent about 45 minutes amidst the heat, exhaust fumes from other hotel's shuttle vans, buses, etc. before being picked up. We kept looking for their shuttle and finally called their front desk clerk.Fortunately, we were allowed to check-in several hours before the official check-in time.  After a long flight and time zone changes, we were very happy for this indulgence.The value for the money paid to stay at this Quality Suites was a good return. The complimentary breakfast had cute Texas shaped waffles, as well as the usual bacon, sausages, and scrambled eggs with bread &amp; cereal products. The 2 room suite was sufficiently large. There was a small refrigerator to hold our soft drinks and meal leftovers. Two large televisions was also a surprise. Both double beds were firm and didn't sag in any spots. There's a public access high-speed cable connected computer for use, as well as free cable connection if you brought your own computer.The room carpeting desperately needed shampooing and cleaning. My toddler daughter wore white socks that became rather black while walking around in our rooms.The air conditioner sturdily kept the bedroom cold but the ventilating fan connecting the bedroom to the living room didn't work. So, the living room was much warmer and sometimes uncomfortable unless we froze the bedroom. (There's a wall and a set of glass doors between the bedroom and the living room which isolates the air flow.)The third floor shared its general ventilation with 1/2 of this floor  designated smoking rooms.  There was a smoky tinge in the air on the third floor which I didn't find on the second floor.A little farther away from Bush IAH Airport than I expected, the location on Vantage Parkway requires a U-turn down the roadway to access this motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2006</t>
+  </si>
+  <si>
+    <t>To avoid waiting 20-30 minutes after calling for the free shuttle from the airport, call the desk the day before arrival. We spent about 45 minutes amidst the heat, exhaust fumes from other hotel's shuttle vans, buses, etc. before being picked up. We kept looking for their shuttle and finally called their front desk clerk.
+Fortunately, we were allowed to check-in several hours before the official check-in time.  After a long flight and time zone changes, we were very happy for this indulgence.
+The value for the money paid to stay at this Quality Suites was a good return. The complimentary breakfast had cute Texas shaped waffles, as well as the usual bacon, sausages, and scrambled eggs with bread &amp; cereal products. The 2 room suite was sufficiently large. There was a small refrigerator to hold our soft drinks and meal leftovers. Two large televisions was also a surprise. Both double beds were firm and didn't sag in any spots. There's a public access high-speed cable connected computer for use, as well as free cable connection if you brought your own computer.
+The room carpeting desperately needed shampooing and cleaning. My toddler daughter wore white socks that became rather black while walking around in our rooms.
+The air conditioner sturdily kept the bedroom cold but the ventilating fan connecting the bedroom to the living room didn't work. So, the living room was much warmer and sometimes uncomfortable unless we froze...To avoid waiting 20-30 minutes after calling for the free shuttle from the airport, call the desk the day before arrival. We spent about 45 minutes amidst the heat, exhaust fumes from other hotel's shuttle vans, buses, etc. before being picked up. We kept looking for their shuttle and finally called their front desk clerk.Fortunately, we were allowed to check-in several hours before the official check-in time.  After a long flight and time zone changes, we were very happy for this indulgence.The value for the money paid to stay at this Quality Suites was a good return. The complimentary breakfast had cute Texas shaped waffles, as well as the usual bacon, sausages, and scrambled eggs with bread &amp; cereal products. The 2 room suite was sufficiently large. There was a small refrigerator to hold our soft drinks and meal leftovers. Two large televisions was also a surprise. Both double beds were firm and didn't sag in any spots. There's a public access high-speed cable connected computer for use, as well as free cable connection if you brought your own computer.The room carpeting desperately needed shampooing and cleaning. My toddler daughter wore white socks that became rather black while walking around in our rooms.The air conditioner sturdily kept the bedroom cold but the ventilating fan connecting the bedroom to the living room didn't work. So, the living room was much warmer and sometimes uncomfortable unless we froze the bedroom. (There's a wall and a set of glass doors between the bedroom and the living room which isolates the air flow.)The third floor shared its general ventilation with 1/2 of this floor  designated smoking rooms.  There was a smoky tinge in the air on the third floor which I didn't find on the second floor.A little farther away from Bush IAH Airport than I expected, the location on Vantage Parkway requires a U-turn down the roadway to access this motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r3635384-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>3635384</t>
+  </si>
+  <si>
+    <t>07/03/2005</t>
+  </si>
+  <si>
+    <t>Aweful Service - Cancelled reservation!</t>
+  </si>
+  <si>
+    <t>We arrived on June 21st in the late evening at the Quality Suites.  When we gave the front desk person our reservation he told us that they were fully booked and that they had faxed Expedia telling them they could not accomodate us.  We were very upset due to the fact we were on our honeymoon and had never been to Houston before.  We contacted Expedia and they never received a fax and the front desk clerk seem to have "misplaced" the fax with our cancelled reservation.  After trying for 45 minutes fro them to do something they send us to a sister hotel in Humble.  The Comfort Inn.  Wow what a dump!!  We did not even stay here.   That is a completely different review though.I highly do not recommend this hotel.  They have terrible customer service and should honor reservations.  If they cannot they should send you to a comparable hotel not the biggest dive in Texas.  We were also told by the nice shuttle driver that this situation happens all the time at this hotel.Do not stay here!  You more than likely wont have a room.MoreShow less</t>
+  </si>
+  <si>
+    <t>We arrived on June 21st in the late evening at the Quality Suites.  When we gave the front desk person our reservation he told us that they were fully booked and that they had faxed Expedia telling them they could not accomodate us.  We were very upset due to the fact we were on our honeymoon and had never been to Houston before.  We contacted Expedia and they never received a fax and the front desk clerk seem to have "misplaced" the fax with our cancelled reservation.  After trying for 45 minutes fro them to do something they send us to a sister hotel in Humble.  The Comfort Inn.  Wow what a dump!!  We did not even stay here.   That is a completely different review though.I highly do not recommend this hotel.  They have terrible customer service and should honor reservations.  If they cannot they should send you to a comparable hotel not the biggest dive in Texas.  We were also told by the nice shuttle driver that this situation happens all the time at this hotel.Do not stay here!  You more than likely wont have a room.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1498,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1530,2938 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>65</v>
+      </c>
+      <c r="X4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" t="s">
+        <v>104</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s">
+        <v>104</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>83</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>118</v>
+      </c>
+      <c r="X11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" t="s">
+        <v>134</v>
+      </c>
+      <c r="L14" t="s">
+        <v>135</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>117</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" t="s">
+        <v>146</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>141</v>
+      </c>
+      <c r="O16" t="s">
+        <v>147</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>150</v>
+      </c>
+      <c r="J17" t="s">
+        <v>151</v>
+      </c>
+      <c r="K17" t="s">
+        <v>152</v>
+      </c>
+      <c r="L17" t="s">
+        <v>153</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>154</v>
+      </c>
+      <c r="O17" t="s">
+        <v>147</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>156</v>
+      </c>
+      <c r="J18" t="s">
+        <v>157</v>
+      </c>
+      <c r="K18" t="s">
+        <v>158</v>
+      </c>
+      <c r="L18" t="s">
+        <v>159</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>160</v>
+      </c>
+      <c r="O18" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" t="s">
+        <v>165</v>
+      </c>
+      <c r="L19" t="s">
+        <v>166</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>167</v>
+      </c>
+      <c r="O19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>169</v>
+      </c>
+      <c r="J20" t="s">
+        <v>170</v>
+      </c>
+      <c r="K20" t="s">
+        <v>171</v>
+      </c>
+      <c r="L20" t="s">
+        <v>172</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>173</v>
+      </c>
+      <c r="O20" t="s">
+        <v>147</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>176</v>
+      </c>
+      <c r="J21" t="s">
+        <v>177</v>
+      </c>
+      <c r="K21" t="s">
+        <v>178</v>
+      </c>
+      <c r="L21" t="s">
+        <v>179</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>180</v>
+      </c>
+      <c r="O21" t="s">
+        <v>59</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>181</v>
+      </c>
+      <c r="X21" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>184</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>185</v>
+      </c>
+      <c r="J22" t="s">
+        <v>186</v>
+      </c>
+      <c r="K22" t="s">
+        <v>187</v>
+      </c>
+      <c r="L22" t="s">
+        <v>188</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>180</v>
+      </c>
+      <c r="O22" t="s">
+        <v>104</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>189</v>
+      </c>
+      <c r="X22" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>192</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>193</v>
+      </c>
+      <c r="J23" t="s">
+        <v>194</v>
+      </c>
+      <c r="K23" t="s">
+        <v>195</v>
+      </c>
+      <c r="L23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>197</v>
+      </c>
+      <c r="O23" t="s">
+        <v>104</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>198</v>
+      </c>
+      <c r="X23" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>201</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>202</v>
+      </c>
+      <c r="J24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K24" t="s">
+        <v>204</v>
+      </c>
+      <c r="L24" t="s">
+        <v>205</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>206</v>
+      </c>
+      <c r="O24" t="s">
+        <v>59</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>198</v>
+      </c>
+      <c r="X24" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>209</v>
+      </c>
+      <c r="J25" t="s">
+        <v>210</v>
+      </c>
+      <c r="K25" t="s">
+        <v>211</v>
+      </c>
+      <c r="L25" t="s">
+        <v>212</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>206</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>214</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>215</v>
+      </c>
+      <c r="J26" t="s">
+        <v>216</v>
+      </c>
+      <c r="K26" t="s">
+        <v>217</v>
+      </c>
+      <c r="L26" t="s">
+        <v>218</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>219</v>
+      </c>
+      <c r="O26" t="s">
+        <v>147</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>220</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>221</v>
+      </c>
+      <c r="J27" t="s">
+        <v>222</v>
+      </c>
+      <c r="K27" t="s">
+        <v>223</v>
+      </c>
+      <c r="L27" t="s">
+        <v>224</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>219</v>
+      </c>
+      <c r="O27" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>225</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>226</v>
+      </c>
+      <c r="J28" t="s">
+        <v>227</v>
+      </c>
+      <c r="K28" t="s">
+        <v>228</v>
+      </c>
+      <c r="L28" t="s">
+        <v>229</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>231</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>232</v>
+      </c>
+      <c r="J29" t="s">
+        <v>233</v>
+      </c>
+      <c r="K29" t="s">
+        <v>234</v>
+      </c>
+      <c r="L29" t="s">
+        <v>235</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>236</v>
+      </c>
+      <c r="O29" t="s">
+        <v>59</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>237</v>
+      </c>
+      <c r="X29" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>240</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>241</v>
+      </c>
+      <c r="J30" t="s">
+        <v>242</v>
+      </c>
+      <c r="K30" t="s">
+        <v>243</v>
+      </c>
+      <c r="L30" t="s">
+        <v>244</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>236</v>
+      </c>
+      <c r="O30" t="s">
+        <v>83</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>237</v>
+      </c>
+      <c r="X30" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>246</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>247</v>
+      </c>
+      <c r="J31" t="s">
+        <v>248</v>
+      </c>
+      <c r="K31" t="s">
+        <v>249</v>
+      </c>
+      <c r="L31" t="s">
+        <v>250</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>251</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>252</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>253</v>
+      </c>
+      <c r="J32" t="s">
+        <v>254</v>
+      </c>
+      <c r="K32" t="s">
+        <v>255</v>
+      </c>
+      <c r="L32" t="s">
+        <v>256</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>257</v>
+      </c>
+      <c r="O32" t="s">
+        <v>147</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>258</v>
+      </c>
+      <c r="X32" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>261</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>262</v>
+      </c>
+      <c r="J33" t="s">
+        <v>263</v>
+      </c>
+      <c r="K33" t="s">
+        <v>264</v>
+      </c>
+      <c r="L33" t="s">
+        <v>265</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>257</v>
+      </c>
+      <c r="O33" t="s">
+        <v>104</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>266</v>
+      </c>
+      <c r="X33" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>269</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>270</v>
+      </c>
+      <c r="J34" t="s">
+        <v>271</v>
+      </c>
+      <c r="K34" t="s">
+        <v>272</v>
+      </c>
+      <c r="L34" t="s">
+        <v>273</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>274</v>
+      </c>
+      <c r="O34" t="s">
+        <v>59</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>266</v>
+      </c>
+      <c r="X34" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>276</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>277</v>
+      </c>
+      <c r="J35" t="s">
+        <v>278</v>
+      </c>
+      <c r="K35" t="s">
+        <v>279</v>
+      </c>
+      <c r="L35" t="s">
+        <v>280</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>281</v>
+      </c>
+      <c r="O35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>282</v>
+      </c>
+      <c r="X35" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>285</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>286</v>
+      </c>
+      <c r="J36" t="s">
+        <v>287</v>
+      </c>
+      <c r="K36" t="s">
+        <v>288</v>
+      </c>
+      <c r="L36" t="s">
+        <v>289</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>281</v>
+      </c>
+      <c r="O36" t="s">
+        <v>104</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>282</v>
+      </c>
+      <c r="X36" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>291</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>292</v>
+      </c>
+      <c r="J37" t="s">
+        <v>293</v>
+      </c>
+      <c r="K37" t="s">
+        <v>294</v>
+      </c>
+      <c r="L37" t="s">
+        <v>295</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>296</v>
+      </c>
+      <c r="O37" t="s">
+        <v>147</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>282</v>
+      </c>
+      <c r="X37" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>298</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>299</v>
+      </c>
+      <c r="J38" t="s">
+        <v>300</v>
+      </c>
+      <c r="K38" t="s">
+        <v>301</v>
+      </c>
+      <c r="L38" t="s">
+        <v>302</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>282</v>
+      </c>
+      <c r="X38" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>304</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>305</v>
+      </c>
+      <c r="J39" t="s">
+        <v>306</v>
+      </c>
+      <c r="K39" t="s">
+        <v>307</v>
+      </c>
+      <c r="L39" t="s">
+        <v>308</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>309</v>
+      </c>
+      <c r="O39" t="s">
+        <v>147</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>282</v>
+      </c>
+      <c r="X39" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>311</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>312</v>
+      </c>
+      <c r="J40" t="s">
+        <v>313</v>
+      </c>
+      <c r="K40" t="s">
+        <v>314</v>
+      </c>
+      <c r="L40" t="s">
+        <v>315</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>309</v>
+      </c>
+      <c r="O40" t="s">
+        <v>104</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>317</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>318</v>
+      </c>
+      <c r="J41" t="s">
+        <v>319</v>
+      </c>
+      <c r="K41" t="s">
+        <v>320</v>
+      </c>
+      <c r="L41" t="s">
+        <v>321</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>322</v>
+      </c>
+      <c r="O41" t="s">
+        <v>147</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>324</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>325</v>
+      </c>
+      <c r="J42" t="s">
+        <v>326</v>
+      </c>
+      <c r="K42" t="s">
+        <v>327</v>
+      </c>
+      <c r="L42" t="s">
+        <v>328</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>329</v>
+      </c>
+      <c r="O42" t="s">
+        <v>59</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>330</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>331</v>
+      </c>
+      <c r="J43" t="s">
+        <v>332</v>
+      </c>
+      <c r="K43" t="s">
+        <v>333</v>
+      </c>
+      <c r="L43" t="s">
+        <v>334</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>335</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>336</v>
+      </c>
+      <c r="J44" t="s">
+        <v>337</v>
+      </c>
+      <c r="K44" t="s">
+        <v>338</v>
+      </c>
+      <c r="L44" t="s">
+        <v>339</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>340</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>342</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>343</v>
+      </c>
+      <c r="J45" t="s">
+        <v>344</v>
+      </c>
+      <c r="K45" t="s">
+        <v>345</v>
+      </c>
+      <c r="L45" t="s">
+        <v>346</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>347</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>349</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>350</v>
+      </c>
+      <c r="J46" t="s">
+        <v>351</v>
+      </c>
+      <c r="K46" t="s">
+        <v>352</v>
+      </c>
+      <c r="L46" t="s">
+        <v>353</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_526.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_526.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="541">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,36 +150,69 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r591454605-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>247110</t>
+  </si>
+  <si>
+    <t>591454605</t>
+  </si>
+  <si>
+    <t>06/28/2018</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>The staff at your hotel are very professional and courteous. My only recommendation would be to update the paint in the room and brighter lighting. The breakfast is good and we loved the waffles. Thank you for having us we will return.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r576961231-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>576961231</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>Very dated and maintenance issues</t>
+  </si>
+  <si>
+    <t>Myrtle and I stayed here for two nights to adjust to the time zone after flying here from NZ.Staff overall were very professional although the room fixtures and fittings were extremely tired and rough. There was a hole in the wall (door handle had created) with a mixture of what looked like putty and gum and very scruffy.The bed was comfortable enough although the people next door were extremely loud and came and went throughout the night and were talking at the top of their lungs with children playing like they were outside so very noisy.I would have called reception had there been a phone.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r576911495-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>247110</t>
-  </si>
-  <si>
     <t>576911495</t>
   </si>
   <si>
-    <t>04/30/2018</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
     <t>We enjoyed our stay in this hotel, good size with a jacuzzi. Breakfast was OK, quite complete, A machine with 2 juices, good coffee, waffles, oatmeal, fruit, sweet rolls. they had scrambled eggs and sausage, only thing was that the eggs were too simple, more taste was desirable. The bad side, pool was cold, the gym needed service, it was not clean or serviced.</t>
   </si>
   <si>
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r576734519-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
   </si>
   <si>
@@ -222,6 +255,42 @@
     <t>We have been here for about 2 1/2 weeks; post Harvey, and I have to say the hotel is not quite what we expected. With that being said, the hotel exterior/interior is very neat, clean and lively. The hotel from the pictures online are very true to fit. From reading some other reviews I had expected the hotel to be drab and not very well kept, but the price was right, so we took a gamble. The check-in process was easy, we arrived at 11am so our room wasn't ready just yet, but the manager Holly jumped into action, and with a few clicks we were checked-in a new room. Upon inspection of the room we found everything neat and clean smelling. No complaints there. We unloaded very quickly and were greeted by each staff member with a smile. Later that evening we discovered that the sheets on the sofa bed were not there and the blanket needed to be replaced. I contacted the front desk to see about getting bedding and a new blanket, the young lady that worked that night was very rude and unprofessional. The next night I spoke with another young lady whom worked the night shift too, same issue as with the first lady, rude and unprofessional. Dealing with the ladies that work in the morning is a breeze, but the two at night are a trip. I decided to bring the issues (more than...We have been here for about 2 1/2 weeks; post Harvey, and I have to say the hotel is not quite what we expected. With that being said, the hotel exterior/interior is very neat, clean and lively. The hotel from the pictures online are very true to fit. From reading some other reviews I had expected the hotel to be drab and not very well kept, but the price was right, so we took a gamble. The check-in process was easy, we arrived at 11am so our room wasn't ready just yet, but the manager Holly jumped into action, and with a few clicks we were checked-in a new room. Upon inspection of the room we found everything neat and clean smelling. No complaints there. We unloaded very quickly and were greeted by each staff member with a smile. Later that evening we discovered that the sheets on the sofa bed were not there and the blanket needed to be replaced. I contacted the front desk to see about getting bedding and a new blanket, the young lady that worked that night was very rude and unprofessional. The next night I spoke with another young lady whom worked the night shift too, same issue as with the first lady, rude and unprofessional. Dealing with the ladies that work in the morning is a breeze, but the two at night are a trip. I decided to bring the issues (more than two) to management because I had an unpleasant experience over the phone with the night shift too. I was glad I did, Holly apologized and offered to make things right. Holly and the rest of the staff have been very accommodating and warm to my family and I. I hope the night shift cleans up their act. We are still at the hotel, I will update this review upon check-out.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r571586489-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>571586489</t>
+  </si>
+  <si>
+    <t>04/06/2018</t>
+  </si>
+  <si>
+    <t>Filthy accommodations,sleepers beware</t>
+  </si>
+  <si>
+    <t>We had an issue booking our flights through a 3rd party due to a technical issue on their end, forcing us to have to stay in Houston an extra day then we had originally intended. They put us up in this hotel for the night and it was nightmareish to say the least. One good thing - the check in process was easy and the lady at the front desk was pleasant. But other than this, the hotel was awful. The room we stayed in was a suite and it smelled so bad we had headaches, one of the towels had a brown stain on it, the floors were sticky despite being carpeted, there was sticky liquid on the wall by the garbage can (like someone threw a bottle, it exploded, and then was never cleaned), the tub was cracked, the shower curtain rod was halfway out of the wall... among other things. It really seemed like the room was never properly cleaned for new guests, and probably hasn't been well cleaned in a long time. I slept so bad because I felt itchy and gross and couldn't wait to leave to take a shower at home. Another negative - the earliest the shuttles for the airport leave is 7am so if you have an early flight you'll need an Uber. Definitely do not recommend this place - look elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had an issue booking our flights through a 3rd party due to a technical issue on their end, forcing us to have to stay in Houston an extra day then we had originally intended. They put us up in this hotel for the night and it was nightmareish to say the least. One good thing - the check in process was easy and the lady at the front desk was pleasant. But other than this, the hotel was awful. The room we stayed in was a suite and it smelled so bad we had headaches, one of the towels had a brown stain on it, the floors were sticky despite being carpeted, there was sticky liquid on the wall by the garbage can (like someone threw a bottle, it exploded, and then was never cleaned), the tub was cracked, the shower curtain rod was halfway out of the wall... among other things. It really seemed like the room was never properly cleaned for new guests, and probably hasn't been well cleaned in a long time. I slept so bad because I felt itchy and gross and couldn't wait to leave to take a shower at home. Another negative - the earliest the shuttles for the airport leave is 7am so if you have an early flight you'll need an Uber. Definitely do not recommend this place - look elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r570239958-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>570239958</t>
+  </si>
+  <si>
+    <t>04/01/2018</t>
+  </si>
+  <si>
+    <t>Only one night but wish it had been longer.</t>
+  </si>
+  <si>
+    <t>Stayed here for one night not wanting to spend a fortune while waiting on a flight. Night time lady was so kind and helpful. Morning girl was nice enough to print boarding passes.The suite itself was nice and spacious- odd layout but interesting. Main living with a sofa bed &amp; the bathroom upon entry then a pass thru double glass doors into the double queen bedroom (a total sleeping space up to 6 people). Both rooms have TVs. Wi-fi was strong. The only A/C unit is in the bedroom so the living area can get warm if the connecting doors are closed. The breakfast was great! Scrambled eggs, sausage, biscuits, gravy, TX waffles and the rest was standard continental breakfast offerings. The breakfast attendant was very quick to keep everything filled and clean. There are several fast food offerings within a mile of the property and some others that will deliver. Overall a great stay and certainly a place to consider using as a “home base” if staying in the area longer for a family vacation.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for one night not wanting to spend a fortune while waiting on a flight. Night time lady was so kind and helpful. Morning girl was nice enough to print boarding passes.The suite itself was nice and spacious- odd layout but interesting. Main living with a sofa bed &amp; the bathroom upon entry then a pass thru double glass doors into the double queen bedroom (a total sleeping space up to 6 people). Both rooms have TVs. Wi-fi was strong. The only A/C unit is in the bedroom so the living area can get warm if the connecting doors are closed. The breakfast was great! Scrambled eggs, sausage, biscuits, gravy, TX waffles and the rest was standard continental breakfast offerings. The breakfast attendant was very quick to keep everything filled and clean. There are several fast food offerings within a mile of the property and some others that will deliver. Overall a great stay and certainly a place to consider using as a “home base” if staying in the area longer for a family vacation.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r542077982-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
   </si>
   <si>
@@ -289,6 +358,45 @@
   </si>
   <si>
     <t>This is a budget no frills airport hotel. We were there less than 10 hours as we had an early flight so didn't take advantage of their continental breakfast or airport shuttle. Rooms are large but sparsely decorated. Color scheme is blah and the bedding on one our beds had not been changed as there was makeup all over the pillows and sheets which is gross. We asked for new bedding which was quickly delivered. The rest of the room was clean. There are over a dozen airport hotels and this is one of the cheapest (We only paid $80). I thought the staff was friendly enough and efficient. You get what you pay for so adjust your expectations accordingly. I will also mention there is nothing within walking distance of this hotel so if you are without a car your dining options are severely limited. If I needed more than one night I would pay more money to stay elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r473222612-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>473222612</t>
+  </si>
+  <si>
+    <t>04/06/2017</t>
+  </si>
+  <si>
+    <t>Airport layover  AWFUL</t>
+  </si>
+  <si>
+    <t>I booked this hotel for a short overnight layover in Houstonto call it a motel would be generous It took 30+ minutes for the van to arrive45 minutes to check in - there was only one other person checking inthe 'suite' was dirty   the carpets were old  I didn't take my shoes off!! noisy rattly A/C. chipped furniture and an old sofa that had seen better daysI only had 4 hours by the time I checked in or I would have gone elsewhereThe van only runs from 6a to 11p  not the best if you arrive late or check in earlyI WOULD NOT STAY HERE AGAIN</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r472732546-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>472732546</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t>"Bates Motel"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a eerie hotel. From staff to environment.  They are not very friendly and just doing a job.  They greet you as if they really don't want you there.  I would not recommend this hotel to anyone.  I didn't even complete my stay there.  </t>
+  </si>
+  <si>
+    <t>January 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r466317235-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
@@ -334,9 +442,6 @@
     <t>February 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r445766336-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
   </si>
   <si>
@@ -358,6 +463,51 @@
     <t>We flew into IAH to cruise out of Galveston the next day. My wife and I arrived at the airport and called the hotel for the courtesy shuttle. The gentleman who answered the phone said the shuttle could take 45 minutes to arrive. The shuttle actually  arrived in about 25 minutes which was great. The shuttle driver was a very nice lady. We arrived at the hotel around 9:30 pm and the guy at the counter was fast asleep..out for the count.. sitting there with his head laid to the side. After a couple of attempts, I did manage to wake him up. He offered no apology and went ahead with the check in process which seemed a little slow because he appeared sleepy . We received our keys and had a room on the first floor. We entered our room room and there was a musty smell to it and there was circular dark stain on the carpet near the door. In the morning, we had the free breakfast which was decent. We checked out and the lady was very nice and awake.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r439959360-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>439959360</t>
+  </si>
+  <si>
+    <t>11/25/2016</t>
+  </si>
+  <si>
+    <t>Needs Attention!</t>
+  </si>
+  <si>
+    <t>The room air conditioner was erratically noisy and left a puddle on the carpet in front of it – right where I had to step in it, barefoot from the bed. Minimal TV channel selection, but 2 flat screen TVs. The WiFi was connection quite slow and required signing in again every time. These negatives are trivial compared to Housekeeping walking into our room at 7:30am in spite of the “do not disturb” sign and the fact that I was standing there naked. Perhaps they could learn to knock on the door, then WAIT for a response before barging in, especially with a do-not-disturb sign and especially that early in the morning. The room itself was fair with the living room (uncomfortable couch) but a comfortable bed and a nice bathroom setup. Plenty of outlets; breakfast was adequate; front desk personnel were friendly. Price was a bargain and you get what you pay for. We selected this hotel due to the park-n-fly program of leaving our car here while we are gone – at a reasonable price. For that reason alone, I would return, but would not if I just wanted to be a tourist in Houston. There are no restaurants nearby and driving in Houston can be quite confusing with all the one-way streets, turnarounds, heavy traffic and fast, aggressive drivers. So getting to a restaurant was quite a challenge!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Quality_Suites_TX744, General Manager at Quality Suites Bush/IAH Airport West, responded to this reviewResponded December 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2016</t>
+  </si>
+  <si>
+    <t>The room air conditioner was erratically noisy and left a puddle on the carpet in front of it – right where I had to step in it, barefoot from the bed. Minimal TV channel selection, but 2 flat screen TVs. The WiFi was connection quite slow and required signing in again every time. These negatives are trivial compared to Housekeeping walking into our room at 7:30am in spite of the “do not disturb” sign and the fact that I was standing there naked. Perhaps they could learn to knock on the door, then WAIT for a response before barging in, especially with a do-not-disturb sign and especially that early in the morning. The room itself was fair with the living room (uncomfortable couch) but a comfortable bed and a nice bathroom setup. Plenty of outlets; breakfast was adequate; front desk personnel were friendly. Price was a bargain and you get what you pay for. We selected this hotel due to the park-n-fly program of leaving our car here while we are gone – at a reasonable price. For that reason alone, I would return, but would not if I just wanted to be a tourist in Houston. There are no restaurants nearby and driving in Houston can be quite confusing with all the one-way streets, turnarounds, heavy traffic and fast, aggressive drivers. So getting to a restaurant was quite a challenge!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r426765447-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>426765447</t>
+  </si>
+  <si>
+    <t>10/10/2016</t>
+  </si>
+  <si>
+    <t>Ok for a Night</t>
+  </si>
+  <si>
+    <t>Easy to find and close to the airport.  Rooms were large and clean and the service at the front desk was fine.  Finding a restaurant close by was a 20 minute drive....if you don´t want fast food, but overall ok.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r385937120-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
   </si>
   <si>
@@ -415,6 +565,42 @@
     <t>I went to go to hotel by Taxi（＄22）,Because I arrived the hotel at midnight 1AM.Of cause, This hotel has the shattle from IAH. But final shattle is 23:40This room has 1bed and living.Clean and comfotable.このホテルにはシャトルがあるのですが最終23：40でした。私の到着が夜中の1時だったためタクシーで向かいました。10分ほどで＄22でした。部屋は綺麗で広くベッドルームとリビングが分かれていて大変よかったです！</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r378855720-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>378855720</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>John showed me incredible kindness</t>
+  </si>
+  <si>
+    <t>These five stars are really due to my interaction with John at the front desk. For background: I was traveling from Boston to Austin with a connection in Houston. This Memorial Day weekend, my connection to Austin was cancelled as a result of thunderstorms in the Houston area, and I was stranded in Houston until the next day. United Airlines (who I was booked with) offered me a discounted rate due the overnight delay that was the result of this cancellation, and had me book through Travelliance  Travelliance booked me into this hotel. After arriving however, it turns out that my name was never in the system of this hotel and that all the rooms were full for the night (thanks a lot for your incalculable incompetence Travelliance!). John (who was working at the front desk this particular night was incredibly compassionate to my situation. He allowed me to stay in the hotel lobby until my bus to Austin the following morning. Furthermore, he offered to help contact Travelliance customer service from the side of the hotel to help deal with this issue. Lastly, when there was a fortunate no-show on this night, John gave me the opened room as soon as possible. While the room was definitely a welcome comfort, I cannot speak enough to John's kindness in allowing me to stay somewhat indefinitely in his hotel lobby.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>These five stars are really due to my interaction with John at the front desk. For background: I was traveling from Boston to Austin with a connection in Houston. This Memorial Day weekend, my connection to Austin was cancelled as a result of thunderstorms in the Houston area, and I was stranded in Houston until the next day. United Airlines (who I was booked with) offered me a discounted rate due the overnight delay that was the result of this cancellation, and had me book through Travelliance  Travelliance booked me into this hotel. After arriving however, it turns out that my name was never in the system of this hotel and that all the rooms were full for the night (thanks a lot for your incalculable incompetence Travelliance!). John (who was working at the front desk this particular night was incredibly compassionate to my situation. He allowed me to stay in the hotel lobby until my bus to Austin the following morning. Furthermore, he offered to help contact Travelliance customer service from the side of the hotel to help deal with this issue. Lastly, when there was a fortunate no-show on this night, John gave me the opened room as soon as possible. While the room was definitely a welcome comfort, I cannot speak enough to John's kindness in allowing me to stay somewhat indefinitely in his hotel lobby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r369940407-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>369940407</t>
+  </si>
+  <si>
+    <t>05/03/2016</t>
+  </si>
+  <si>
+    <t>Descent hotel</t>
+  </si>
+  <si>
+    <t>The hotel is clean, but a little distant.  They also aren't clear about when their airport shuttle service runs.  It was too earlier for them to take us to the airport, but they did pick us up.  Beds are far too hard.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r363192451-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
   </si>
   <si>
@@ -463,12 +649,48 @@
     <t>I was pleased with the free shuttle to and from the airport. It arrived fairly soon after I called for a pick up. On the way back I took an Uber cab because the earliest shuttle in the morning leaves at 0600 AM and I was worried about being late for my flight at 0850 (I haven't flown from Houston before so didn't know how long it would take to get through security). This anxiety was probably unnecessary, the shuttle would have got me there with plenty of time. The room was clean and spacious, the beds were comfortable. Wifi worked well for email. I didn't try the breakfast.The shower has a curved shower rail for extra space.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>I was pleased with the free shuttle to and from the airport. It arrived fairly soon after I called for a pick up. On the way back I took an Uber cab because the earliest shuttle in the morning leaves at 0600 AM and I was worried about being late for my flight at 0850 (I haven't flown from Houston before so didn't know how long it would take to get through security). This anxiety was probably unnecessary, the shuttle would have got me there with plenty of time. The room was clean and spacious, the beds were comfortable. Wifi worked well for email. I didn't try the breakfast.The shower has a curved shower rail for extra space.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r356020863-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>356020863</t>
+  </si>
+  <si>
+    <t>03/16/2016</t>
+  </si>
+  <si>
+    <t>Hotel OK, Shuttle driver took 45 minutes to pick up</t>
+  </si>
+  <si>
+    <t>We arrived at International arrivals E terminal, phoned the hotel to request the shuttle and waited for 45 minutes before the shuttle driver finally showed up. We were waiting in the designated hotel shuttle pick-up area and watched many other hotel shuttles picking up guests right next to us, not to mention Super Shuttle, the parking shuttles, and car rental shuttles. When the driver finally arrived he claimed we weren't there when he came by, which is not true. We were waiting outside in the designated area from 8:30 PM until 9:15. Room was nice, breakfast OK. Just such a shame the driver didn't come when he should have and then made up some story about us not being there. It pretty much ruined our experience here.MoreShow less</t>
+  </si>
+  <si>
+    <t>We arrived at International arrivals E terminal, phoned the hotel to request the shuttle and waited for 45 minutes before the shuttle driver finally showed up. We were waiting in the designated hotel shuttle pick-up area and watched many other hotel shuttles picking up guests right next to us, not to mention Super Shuttle, the parking shuttles, and car rental shuttles. When the driver finally arrived he claimed we weren't there when he came by, which is not true. We were waiting outside in the designated area from 8:30 PM until 9:15. Room was nice, breakfast OK. Just such a shame the driver didn't come when he should have and then made up some story about us not being there. It pretty much ruined our experience here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r348417732-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>348417732</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>Good Layover Option</t>
+  </si>
+  <si>
+    <t>We stayed at Quality Suites during an overnight layover in Houston. The rooms are a bit dated but clean and the bed is comfortable. There isn't much in the area but the front counter does have some delivery/take out menus available. The shuttle service was good, but it's best to phone ahead. Once we phoned it took about 15 minutes for the shuttle to arrive (big white cube van with the name of the hotel written across). We also had to change our check-in date to a few days earlier due to unforeseen circumstances. The hotel changed this free of charge. My only complaint is the price point. Our travel agent booked this hotel for us a while back, but we stayed at another hotel in the area on another layover in Houston a couple of weeks back, which we booked ourselves, that was similar in room quality/amenities but was much cheaper. Overall, a good place for a quick stop.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>We stayed at Quality Suites during an overnight layover in Houston. The rooms are a bit dated but clean and the bed is comfortable. There isn't much in the area but the front counter does have some delivery/take out menus available. The shuttle service was good, but it's best to phone ahead. Once we phoned it took about 15 minutes for the shuttle to arrive (big white cube van with the name of the hotel written across). We also had to change our check-in date to a few days earlier due to unforeseen circumstances. The hotel changed this free of charge. My only complaint is the price point. Our travel agent booked this hotel for us a while back, but we stayed at another hotel in the area on another layover in Houston a couple of weeks back, which we booked ourselves, that was similar in room quality/amenities but was much cheaper. Overall, a good place for a quick stop.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r347235577-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
   </si>
   <si>
@@ -482,9 +704,6 @@
   </si>
   <si>
     <t xml:space="preserve">I had to spend an extra 4 days near the IAH airport prior to my flight to India. Tara and her staff were very attentive to all my needs and made me feel at home. Great value. Quiet, Comfortable room. Would recommend this location for both business and leisure travelers. </t>
-  </si>
-  <si>
-    <t>February 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r343848970-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
@@ -526,6 +745,42 @@
   </si>
   <si>
     <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r324262078-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>324262078</t>
+  </si>
+  <si>
+    <t>11/03/2015</t>
+  </si>
+  <si>
+    <t>A very nice rest here.</t>
+  </si>
+  <si>
+    <t>The general manager Tara was very professional and helpful with getting checked in since I need the room for the day to sleep. The breakfast was good, as well the bed was very comfortable. Happy hour on Tuesday from 5-7 is a nice touch also.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r322441309-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>322441309</t>
+  </si>
+  <si>
+    <t>10/27/2015</t>
+  </si>
+  <si>
+    <t>The Worst Ever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had a layover in Houston and called this service to book a last minute room. I asked for three things--close proximity to the airport, a restaurant that I could walk to, and a clean room.  The airport was 15-20 minutes away--not the five minutes I asked for, there wasn't a restaurant within walking distance and the room was very run-down with a large bathtub/spa tub in the living room next to the couch! I blame the booking service-not the hotel. </t>
+  </si>
+  <si>
+    <t>October 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r311005950-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
@@ -606,6 +861,51 @@
     <t>Clean, newly decorated. Comfortable beds. Good breakfast. The room was unique in that it was two separate rooms. ( one room that had been made into two) the downside to this was that the "living room" didn't have a window because it was in the bedroom.  So that part of the room seemed a little dark. A TV for each room. The most pleasant surprise was the complimentary spaghetti and meat balls served in the lobby starting at five. Really remarkably good.  Staff very helpful and friendly, really made us feel welcome. The one negative was that the room a/c unit seemed too noisy, however that did cover the jet noise. We actually turned the unit off after cooling the room down. Nice sized outdoor pool. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r290247136-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>290247136</t>
+  </si>
+  <si>
+    <t>07/18/2015</t>
+  </si>
+  <si>
+    <t>Various reasons for the 2 stars</t>
+  </si>
+  <si>
+    <t>Poor maintenance... Spent night last night in room 209.  Huge puddle of water by the air conditioning unit in room.  The drain in the bathroom room sink did not move.Then breakfast.  It was terrible.  Coffee not good. Waffle machine was not ready at 6, it was ready at 6:30. Then the machine turned out a terrible tasting waffle.  Some other people left during the night since it was too loud.MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality_Suites_TX744, General Manager at Quality Suites Bush/IAH Airport West, responded to this reviewResponded July 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2015</t>
+  </si>
+  <si>
+    <t>Poor maintenance... Spent night last night in room 209.  Huge puddle of water by the air conditioning unit in room.  The drain in the bathroom room sink did not move.Then breakfast.  It was terrible.  Coffee not good. Waffle machine was not ready at 6, it was ready at 6:30. Then the machine turned out a terrible tasting waffle.  Some other people left during the night since it was too loud.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r280765707-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>280765707</t>
+  </si>
+  <si>
+    <t>06/16/2015</t>
+  </si>
+  <si>
+    <t>Older, but very nice and clean</t>
+  </si>
+  <si>
+    <t>This is an older hotel, but very well maintained.  The room was clean and fully stocked and everything worked well.  The evening and morning staff were friendly and there was free pizza and beer for dinner.  It's a shame there weren't any free soft drinks.  -grin-  Seriously, the weather was bad and having the pizza available was a very nice surprise.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>This is an older hotel, but very well maintained.  The room was clean and fully stocked and everything worked well.  The evening and morning staff were friendly and there was free pizza and beer for dinner.  It's a shame there weren't any free soft drinks.  -grin-  Seriously, the weather was bad and having the pizza available was a very nice surprise.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r268430368-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
   </si>
   <si>
@@ -624,12 +924,6 @@
     <t>April 2015</t>
   </si>
   <si>
-    <t>Quality_Suites_TX744, General Manager at Quality Suites Bush/IAH Airport West, responded to this reviewResponded July 21, 2015</t>
-  </si>
-  <si>
-    <t>Responded July 21, 2015</t>
-  </si>
-  <si>
     <t>My husband and I had to stay an unexpected night at this hotel this past Saturday night (April 25, 2015) after we missed our connecting flight back home to South Carolina when we were traveling back from Las Vegas. We were shuttled to this hotel from the airport on a van with a friend who was traveling with us and one other couple we did not know who also missed their connecting flight. The driver was super nice and helpful, and on the way to the hotel even offered to stop us at a restaurant since there were none close to the hotel - since it was after 9 p.m. and we were all frustrated and worn out, we all declined but he let us know about the two places that deliver food late to the hotel (a pizza place and a Chinese restaurant). When we got to the hotel, our little group were the only ones checking in at the moment but it took a little while because United Airlines had major issues that evening with different flights that caused many of us to need a room there. Because of this the young lady working the front desk was constantly having to answer the phone to take reservations and schedule more shuttle pick ups. Even still she remained very positive and very friendly - we totally understood waiting a few minutes longer to get checked in because the poor...My husband and I had to stay an unexpected night at this hotel this past Saturday night (April 25, 2015) after we missed our connecting flight back home to South Carolina when we were traveling back from Las Vegas. We were shuttled to this hotel from the airport on a van with a friend who was traveling with us and one other couple we did not know who also missed their connecting flight. The driver was super nice and helpful, and on the way to the hotel even offered to stop us at a restaurant since there were none close to the hotel - since it was after 9 p.m. and we were all frustrated and worn out, we all declined but he let us know about the two places that deliver food late to the hotel (a pizza place and a Chinese restaurant). When we got to the hotel, our little group were the only ones checking in at the moment but it took a little while because United Airlines had major issues that evening with different flights that caused many of us to need a room there. Because of this the young lady working the front desk was constantly having to answer the phone to take reservations and schedule more shuttle pick ups. Even still she remained very positive and very friendly - we totally understood waiting a few minutes longer to get checked in because the poor thing was swamped. Anyhow, she checked us in quickly and was very sweet. Our room was a nice suite with a king bed. I thought everything was really nice, except the shower floor was a little dirty looking around the drain. I made sure to take a shower in it instead of a bath but other than that the room was nice to me. We weren't there long because we had to get up early the next morning to get back to IAH to get on our rescheduled flight back home, so I don't know anything about the pool or anything like that. We did eat the continental breakfast which was pretty good. The shuttle driver who picked us up the next morning to take us to IAH was a different person and she was also wonderful. In fact, my husband realized he left his phone on the backseat of the van and she brought it back to the airport quickly after he called her which we immensely appreciated. The friendly staff at this hotel really made a rough night much more bearable!More</t>
   </si>
   <si>
@@ -672,6 +966,42 @@
     <t>My wife and I stayed at Quality Suites Bush/IAH.  The hotel was fine.  The desk folks were friendly.  The room was clean and well cared for.  So far so good.  Turned on the TV.  All the channels were fuzzy.  So, I wanted to check my email from our 2nd floor room.  My laptop would not connect (It's a 1-year-old Lenovo that works everywhere.)  I could see 3 wifi connections from the hotel.  The strongest would't accept the password provided.  The second strongest would connect but had no internet service.  I called the front desk.  The clerk's reply = "I'm on the wifi down here and it's working fine."  (That was the 3rd wifi I could see but was out of range from the 2nd floor.)  No offer to try to fix anything or try anything.  Just customer no-service.  I expect more from a decent hotel.  Sure enough, the next morning, I took my wifi down stairs where the clerk was able to connect and it did work down there.  Not much help to me the night before!!!  Major service FAIL Quality Inn and Choice Hotels!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r244678575-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>244678575</t>
+  </si>
+  <si>
+    <t>12/16/2014</t>
+  </si>
+  <si>
+    <t>Quick overnight stay</t>
+  </si>
+  <si>
+    <t>My family stopped here on our way down to Mexico. It was a $20.00 cab ride (plus tip), there are no resturants or stores near (so we ate vending machine food for dinner, because we got in late), not the cleanest bathroom I've ever seen. Staff was nice but it was slow getting checked in.Did not use the pool.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r239469139-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>239469139</t>
+  </si>
+  <si>
+    <t>11/12/2014</t>
+  </si>
+  <si>
+    <t>Friendly Staff, Decent Rooms, No Amenities</t>
+  </si>
+  <si>
+    <t>We stayed here on an overnight layover en route to Costa Rica.  The staff are very friendly and helpful.  Unfortunately, there are no restaurants, stores or conveniences on site or within walking distance.  However, they do put on a very nice breakfast in the morning and in the evening they set out free beer and pizza/nachos.  They definitely try to make  up for the lack of facilities.A cab ride to a restaurant or store will run $20-$30 USD, each way.  Pappa's BBQ House is definitely recommended.The rooms are nice enough and the place is clean.  Our room had two TVs, mini fridge, microwave and coffe maker (single cup).  The strong points here are the staff and their friendly approach.  Downside is the lack of restaurants, stores, etc and cost to get to them.  All-in-all I would certainly stay here again, but would likely seek something closer to amenitites.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>We stayed here on an overnight layover en route to Costa Rica.  The staff are very friendly and helpful.  Unfortunately, there are no restaurants, stores or conveniences on site or within walking distance.  However, they do put on a very nice breakfast in the morning and in the evening they set out free beer and pizza/nachos.  They definitely try to make  up for the lack of facilities.A cab ride to a restaurant or store will run $20-$30 USD, each way.  Pappa's BBQ House is definitely recommended.The rooms are nice enough and the place is clean.  Our room had two TVs, mini fridge, microwave and coffe maker (single cup).  The strong points here are the staff and their friendly approach.  Downside is the lack of restaurants, stores, etc and cost to get to them.  All-in-all I would certainly stay here again, but would likely seek something closer to amenitites.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r235731221-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
   </si>
   <si>
@@ -723,6 +1053,60 @@
     <t>Prior to our wedding weekend, members of my wedding party ere having the hardest time getting a hold of the general manager. I later learned from them that It would take her over a week to return their emails or text messages. When the wedding weekend came the problems got worse. Every afternoon, about half of our room key cards would deactivate so we would have to go down to the front desk to get them turned back on. Finally, I was charged over $800 for rooms I did not sign the contract for. Meanwhile, one of the bridesmaids was charged for three nights when she should've been charged for one night. I tried to get this straightened out with the front desk THREE TIMES in a twelve hour period, one being my wedding night. By the third time, I was upset. The general manager had the nerve to calm down and that it was not a big deal. She then proceeded to refer to me as a Type A person while typing on her computer. She behaved as if I was overreacting about an extra $810 of room charges. My bridesmaid and I are still trying to get our charges corrected 2 days later.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r229034207-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>229034207</t>
+  </si>
+  <si>
+    <t>09/15/2014</t>
+  </si>
+  <si>
+    <t>Good Park-Stay-Fly Option</t>
+  </si>
+  <si>
+    <t>Off their web site, we booked a Park, Stay, Fly package with what I believe was 14 days of Parking included.  It was a great deal and the facility was much nicer than we had expected.  Both of the rooms were very large and would be able to serve a family of four.  Morning breakfast was good.  Since we were arriving late we made a decision to stay overnight on our return from Europe too and drive to Corpus early the next morning.The Quality Inn (Choice) web page often has special promotions so check them out before booking.Drawbacks include that it is a small hotel and a bit further from IAH than most of the other airport hotels.  As a result, the frequency and wait for the airport shuttle is bit longer than ideal, but still doable.Also, the hotel parking lot is not fenced in.  If I had a super expensive car or other car that might be a likely target of thieves, I might not feel 100% comfortable to have it parked here for a long period.  This is Houston, and I would have this same concern at most other parking options too.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Quality_Suites_TX744, General Manager at Quality Suites Bush/IAH Airport West, responded to this reviewResponded September 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2014</t>
+  </si>
+  <si>
+    <t>Off their web site, we booked a Park, Stay, Fly package with what I believe was 14 days of Parking included.  It was a great deal and the facility was much nicer than we had expected.  Both of the rooms were very large and would be able to serve a family of four.  Morning breakfast was good.  Since we were arriving late we made a decision to stay overnight on our return from Europe too and drive to Corpus early the next morning.The Quality Inn (Choice) web page often has special promotions so check them out before booking.Drawbacks include that it is a small hotel and a bit further from IAH than most of the other airport hotels.  As a result, the frequency and wait for the airport shuttle is bit longer than ideal, but still doable.Also, the hotel parking lot is not fenced in.  If I had a super expensive car or other car that might be a likely target of thieves, I might not feel 100% comfortable to have it parked here for a long period.  This is Houston, and I would have this same concern at most other parking options too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r228724626-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>228724626</t>
+  </si>
+  <si>
+    <t>09/13/2014</t>
+  </si>
+  <si>
+    <t>Nice stay close to airport.</t>
+  </si>
+  <si>
+    <t>This hotel was okay for a quick stay for next day fly out from airport. Not used to small room for a family of 5 but it was good. Just didn't like how cab or service drivers were there to try to takes us to airport (ask if we needed service) when we already had shuttle over there. So untrusted. But it was good. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Quality_Suites_TX744, General Manager at Quality Suites Bush/IAH Airport West, responded to this reviewResponded September 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2014</t>
+  </si>
+  <si>
+    <t>This hotel was okay for a quick stay for next day fly out from airport. Not used to small room for a family of 5 but it was good. Just didn't like how cab or service drivers were there to try to takes us to airport (ask if we needed service) when we already had shuttle over there. So untrusted. But it was good. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r228517192-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
   </si>
   <si>
@@ -738,15 +1122,6 @@
     <t>Due to a bad situation with United Airlines they put us in Quality Suites close to the airport.  It was a very nice suite.  Had a parlor room with large TV and another large TV in sleeping room.Nice, clean, quite, comfortable and a nice continental breakfast the next morning.  Thanks for making our stay a great one.R. HuntMoreShow less</t>
   </si>
   <si>
-    <t>August 2014</t>
-  </si>
-  <si>
-    <t>Quality_Suites_TX744, General Manager at Quality Suites Bush/IAH Airport West, responded to this reviewResponded September 15, 2014</t>
-  </si>
-  <si>
-    <t>Responded September 15, 2014</t>
-  </si>
-  <si>
     <t>Due to a bad situation with United Airlines they put us in Quality Suites close to the airport.  It was a very nice suite.  Had a parlor room with large TV and another large TV in sleeping room.Nice, clean, quite, comfortable and a nice continental breakfast the next morning.  Thanks for making our stay a great one.R. HuntMore</t>
   </si>
   <si>
@@ -783,7 +1158,37 @@
     <t>I suggest that you do not leave your car parked at this hotel.  My auto was broke into and now it will cost me more money to get my lock replaced than it was to park my car there.  This is not a good deal and I suggest that you park your car at one of the many gated/security parking areas to avoid this problem.  The hotel staff did not offer to help me out on this either.</t>
   </si>
   <si>
-    <t>July 2014</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r214573133-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>214573133</t>
+  </si>
+  <si>
+    <t>07/09/2014</t>
+  </si>
+  <si>
+    <t>Nobody does their job</t>
+  </si>
+  <si>
+    <t>My family of 5 stayed for 3 nights for vacations and was near airport. When I book a room I watched for amenities, prices and location. The hotel is dirty in general. The pool had cockroaches at the bottom, the stairs old dirty and the wifi is poor... The hair dryer didn,t  work in my room and my wife  was asking about that at the front desk during our 3 days of stay and nobody solved my request (3 different front desk staff). In their amenities appear laundry but no laundry at the hotel. There are better hotels for less money.Hotel for one night only.  I would not return to this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family of 5 stayed for 3 nights for vacations and was near airport. When I book a room I watched for amenities, prices and location. The hotel is dirty in general. The pool had cockroaches at the bottom, the stairs old dirty and the wifi is poor... The hair dryer didn,t  work in my room and my wife  was asking about that at the front desk during our 3 days of stay and nobody solved my request (3 different front desk staff). In their amenities appear laundry but no laundry at the hotel. There are better hotels for less money.Hotel for one night only.  I would not return to this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r213626356-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>213626356</t>
+  </si>
+  <si>
+    <t>07/04/2014</t>
+  </si>
+  <si>
+    <t>Saved my night!</t>
+  </si>
+  <si>
+    <t>I was living a nightmare at the airport. But when I got to the hotel at 2:00AM, I was so relieved! Beautiful decor, wonderful staff, VERY spacious and comfortable room. Saved my night! They even have a shuttle service to the airport in the morning. I had never stayed in a Quality Suites before, but now, they are guaranteed to have my business. I only wish I could've stayed longer.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r201066750-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
@@ -856,6 +1261,51 @@
   </si>
   <si>
     <t>Our group of 22 students was delayed on our international flight and had to spend an extra night in Houston.  Our hosts at Quality Suites took our unfortunate experience and helped us turn it positive.  Their dedication to customer service was amazing.  They definitely went over and above any expectations I had.  I would recommend this hotel to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r197521014-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>197521014</t>
+  </si>
+  <si>
+    <t>03/15/2014</t>
+  </si>
+  <si>
+    <t>Scary shuttle.</t>
+  </si>
+  <si>
+    <t>My husband and I were going on a vacation out of te country and this hotel was our rest spot before we flew out the following morning. The shuttle has some serious issues; although all 3 drivers were amazing! The first night we arrived our driver was Andy, poor guy had to get out and pop the windshield wiper on several times. My husband noticed how bad the windshield was cracked and made a comment. When we went back in the morning Melissa was our driver and she was a wonderful woman. Arriving back at the airport from vacation we decide to stay at the hotel again. The driver that picked us up was a joy, I believe his name was brad. We noticed that windshield was still cracked and it seemed to be getting worse. We asked brad about it and he said that his manager was going to get it fixed soon, but our first driver said something very similar to this. Although the shuttle was not a pretty site, the rooms in the hotel were ok compare to it. The beds were not comfortable at all, and the room had a very bad smell. I would not recommend this hotel to anyone until they got rid of several blemishes.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I were going on a vacation out of te country and this hotel was our rest spot before we flew out the following morning. The shuttle has some serious issues; although all 3 drivers were amazing! The first night we arrived our driver was Andy, poor guy had to get out and pop the windshield wiper on several times. My husband noticed how bad the windshield was cracked and made a comment. When we went back in the morning Melissa was our driver and she was a wonderful woman. Arriving back at the airport from vacation we decide to stay at the hotel again. The driver that picked us up was a joy, I believe his name was brad. We noticed that windshield was still cracked and it seemed to be getting worse. We asked brad about it and he said that his manager was going to get it fixed soon, but our first driver said something very similar to this. Although the shuttle was not a pretty site, the rooms in the hotel were ok compare to it. The beds were not comfortable at all, and the room had a very bad smell. I would not recommend this hotel to anyone until they got rid of several blemishes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r196325599-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>196325599</t>
+  </si>
+  <si>
+    <t>03/05/2014</t>
+  </si>
+  <si>
+    <t>Unexpected stop</t>
+  </si>
+  <si>
+    <t>A million thanks to Tara Wagner for making us feel 100% comfortable. She went above and beyond in trying to ease the stress and inconvinience of an unwanted stop courtesy of united airlines ( united customer service at houston int. Airport is by far the worst).Thanks Tara for the hospitality and for taking us to the mall.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Quality_Suites_TX744, General Manager at Quality Suites Bush/IAH Airport West, responded to this reviewResponded March 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2014</t>
+  </si>
+  <si>
+    <t>A million thanks to Tara Wagner for making us feel 100% comfortable. She went above and beyond in trying to ease the stress and inconvinience of an unwanted stop courtesy of united airlines ( united customer service at houston int. Airport is by far the worst).Thanks Tara for the hospitality and for taking us to the mall.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r191997578-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
@@ -875,9 +1325,6 @@
 If United tries to...I was bumped off a United Flight and had to stay at this property.  It was already late evening and we were tired.  We called the hotel for a shuttle and we were told the shuttle would be arriving soon.  We waited over an hour and there was no shuttle.  We were going to take a cab but fortunately the Marriott shuttle volunteered to bring us to the room.  When we finally got to our rooms and settled the fire alarm went off briefly.  After it shut off so quickly I went back to bed.  About 10 minutes later there was a knock on my door from another guest telling me to get out because there was indeed a fire.  The fire was a result of a poorly maintained heating unit that the hotel knew about.  We spend over an hour on the front lawn with no information from hotel management.  We were finally allowed back in our rooms by the firemen.  We were offered no accommodations for our trouble.  The management was rude when we inquired about this issue in the morning.  We were actually told by them that they turned off the fire alarm because they were not worried about the issue even though the whole 2nd floor was filled with smoke.  The next morning the shuttle I signed up for was over 30 minutes late which nearly caused me to miss my flight.If United tries to send you to this place I would show them this review and strongly disagree.  There is a Marriott attached to the airport which I have had other airlines put me in and it is excellent.MoreShow less</t>
   </si>
   <si>
-    <t>January 2014</t>
-  </si>
-  <si>
     <t>Operations V, General Manager at Quality Suites Bush/IAH Airport West, responded to this reviewResponded February 17, 2014</t>
   </si>
   <si>
@@ -928,6 +1375,42 @@
     <t>This was by far one of the best places I have stayed.  The room was very clean, nicely furnished with modern decor.  Breakfast was good. The G.M. Tara, was very professional and personable who cares about her guest. I was lucky to come at a time when there was a transition period with new management and caught a good rate.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r190001351-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>190001351</t>
+  </si>
+  <si>
+    <t>01/07/2014</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised</t>
+  </si>
+  <si>
+    <t>My wife and I were put up here after a flight cancellation.  We were not looking forward to it after reading the reviews, but we were pleasantly surprised.  The staff were friendly, the room/suite was big and clean, and the bed was comfortable.  No complaints.They have two shuttles... one is a proper van shuttle that has a Quality Suites logo on the side.  The other is a mini van, but they have a Quality Suites sign on the dashboard.  The hotel also had free welcome beers in the hotel upon arrival - exactly what we needed after a long day at the airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I were put up here after a flight cancellation.  We were not looking forward to it after reading the reviews, but we were pleasantly surprised.  The staff were friendly, the room/suite was big and clean, and the bed was comfortable.  No complaints.They have two shuttles... one is a proper van shuttle that has a Quality Suites logo on the side.  The other is a mini van, but they have a Quality Suites sign on the dashboard.  The hotel also had free welcome beers in the hotel upon arrival - exactly what we needed after a long day at the airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r187534316-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>187534316</t>
+  </si>
+  <si>
+    <t>12/13/2013</t>
+  </si>
+  <si>
+    <t>Very comfortable stay</t>
+  </si>
+  <si>
+    <t>After reading the reviews I was a little sceptic, but people always have something 2 say even if the hotel is good. I got picked up by the shuttle. I have 2 say Brent the driver was very courteous. Joshua the front desk staff was very nice. Don't listen to the bad review. The hotel was great. Rooms are very nice &amp; clean. I had a suite &amp; loved the way the room was divided, great 4 a family, two flat screen tv. I enjoyed my stay. Well worth staying &amp; the price was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>After reading the reviews I was a little sceptic, but people always have something 2 say even if the hotel is good. I got picked up by the shuttle. I have 2 say Brent the driver was very courteous. Joshua the front desk staff was very nice. Don't listen to the bad review. The hotel was great. Rooms are very nice &amp; clean. I had a suite &amp; loved the way the room was divided, great 4 a family, two flat screen tv. I enjoyed my stay. Well worth staying &amp; the price was great.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r183769184-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
   </si>
   <si>
@@ -985,6 +1468,42 @@
     <t>Our contact with this hotel began with a pick up at the airport by an unmarked mini-van.  When I asked why it was an unmarked mini-van,  we were told that the regular van was being repaired and the magnetic sign with the hotel name fell off. Now that I read the other reviews, I see that the mini-van has been in existence for a long time and is obviously not "being repaired". Upon arriving in our room I noticed that the toilet seat was up and appeared to have been used and not cleaned.  Then I noticed the bed was sloppily "made" and when I pulled back the sheets I could see that they were dirty and stained.  So I asked the woman at the desk (the same woman who picked us up at the airport and checked us in) to get clean sheets.  She then came into the room with clean bedding and put it on the dirty floor while she stripped the bed and made it up again. I was grossed out that she put the clean bedding on the floor but didn't say anything because I was comfortable doing only so much complaining). Then I noticed other things: stains on the sofa, dried spills on the coffee table, the empty tissue dispenser, toothpaste smeared into the carpet near the sink, and a leaky tub faucet.  In the morning I went to have breakfast at 8 am. There...Our contact with this hotel began with a pick up at the airport by an unmarked mini-van.  When I asked why it was an unmarked mini-van,  we were told that the regular van was being repaired and the magnetic sign with the hotel name fell off. Now that I read the other reviews, I see that the mini-van has been in existence for a long time and is obviously not "being repaired". Upon arriving in our room I noticed that the toilet seat was up and appeared to have been used and not cleaned.  Then I noticed the bed was sloppily "made" and when I pulled back the sheets I could see that they were dirty and stained.  So I asked the woman at the desk (the same woman who picked us up at the airport and checked us in) to get clean sheets.  She then came into the room with clean bedding and put it on the dirty floor while she stripped the bed and made it up again. I was grossed out that she put the clean bedding on the floor but didn't say anything because I was comfortable doing only so much complaining). Then I noticed other things: stains on the sofa, dried spills on the coffee table, the empty tissue dispenser, toothpaste smeared into the carpet near the sink, and a leaky tub faucet.  In the morning I went to have breakfast at 8 am. There were no eggs left but a woman reassured me that they would make some more.  But there was no more sausage or yogurt  and no more in stock. As I sat there eating my eggs, I watched a man literally fall on the floor as his chair collapsed under him and broke apart. This place is clearly under-staffed and poorly maintained and the cleaning is sub-par.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r169951570-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>169951570</t>
+  </si>
+  <si>
+    <t>07/30/2013</t>
+  </si>
+  <si>
+    <t>You can find a MUCH better hotel in the area.</t>
+  </si>
+  <si>
+    <t>We stayed here for an overnight stopover to Mexico.  I had called the hotel before we left, the front desk had said not to worry I could book when we arrived, to be sure I booked on their website before we left.  When we landed and called we were told the shuttle was "broken" so took a cab.  Upon arrival they looked worried as we walked up, then told us they were full, we did have a reservation but they were not sure where they would put us.  They ended up finding a room, it must have been one that was slated for repairs.  The staff mentioned it either wouldn't have a TV or a shower curtain bar but would bring a TV if it was missing.  We discovered the shower curtain bar was missing which was not a big deal, but the tub was dirty and rusty.  The bed sheets were dirty, hair on the sheets and makeup on the pillow cases.  When we went to the the front desk they assured us the sheets were clean....clearly they were not clean so we asked for new ones which I changed myself.  The pull-out sofa didn't have sheets in the room which was likely a good thing, at least the ones we got from the front were clean.  The ceiling had a lot of what looked like water damage on it.  The only positive thing about this hotel was Jackie...We stayed here for an overnight stopover to Mexico.  I had called the hotel before we left, the front desk had said not to worry I could book when we arrived, to be sure I booked on their website before we left.  When we landed and called we were told the shuttle was "broken" so took a cab.  Upon arrival they looked worried as we walked up, then told us they were full, we did have a reservation but they were not sure where they would put us.  They ended up finding a room, it must have been one that was slated for repairs.  The staff mentioned it either wouldn't have a TV or a shower curtain bar but would bring a TV if it was missing.  We discovered the shower curtain bar was missing which was not a big deal, but the tub was dirty and rusty.  The bed sheets were dirty, hair on the sheets and makeup on the pillow cases.  When we went to the the front desk they assured us the sheets were clean....clearly they were not clean so we asked for new ones which I changed myself.  The pull-out sofa didn't have sheets in the room which was likely a good thing, at least the ones we got from the front were clean.  The ceiling had a lot of what looked like water damage on it.  The only positive thing about this hotel was Jackie at the front desk, he was great to deal with.  We left the next morning, via cab due to the shuttle not working, and noticed they had a number of inspectors in the hotel.  Not sure if this is a regular thing or was occurring due to complaints.  All in all I would stay away from this hotel, there are MUCH better hotels in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>We stayed here for an overnight stopover to Mexico.  I had called the hotel before we left, the front desk had said not to worry I could book when we arrived, to be sure I booked on their website before we left.  When we landed and called we were told the shuttle was "broken" so took a cab.  Upon arrival they looked worried as we walked up, then told us they were full, we did have a reservation but they were not sure where they would put us.  They ended up finding a room, it must have been one that was slated for repairs.  The staff mentioned it either wouldn't have a TV or a shower curtain bar but would bring a TV if it was missing.  We discovered the shower curtain bar was missing which was not a big deal, but the tub was dirty and rusty.  The bed sheets were dirty, hair on the sheets and makeup on the pillow cases.  When we went to the the front desk they assured us the sheets were clean....clearly they were not clean so we asked for new ones which I changed myself.  The pull-out sofa didn't have sheets in the room which was likely a good thing, at least the ones we got from the front were clean.  The ceiling had a lot of what looked like water damage on it.  The only positive thing about this hotel was Jackie...We stayed here for an overnight stopover to Mexico.  I had called the hotel before we left, the front desk had said not to worry I could book when we arrived, to be sure I booked on their website before we left.  When we landed and called we were told the shuttle was "broken" so took a cab.  Upon arrival they looked worried as we walked up, then told us they were full, we did have a reservation but they were not sure where they would put us.  They ended up finding a room, it must have been one that was slated for repairs.  The staff mentioned it either wouldn't have a TV or a shower curtain bar but would bring a TV if it was missing.  We discovered the shower curtain bar was missing which was not a big deal, but the tub was dirty and rusty.  The bed sheets were dirty, hair on the sheets and makeup on the pillow cases.  When we went to the the front desk they assured us the sheets were clean....clearly they were not clean so we asked for new ones which I changed myself.  The pull-out sofa didn't have sheets in the room which was likely a good thing, at least the ones we got from the front were clean.  The ceiling had a lot of what looked like water damage on it.  The only positive thing about this hotel was Jackie at the front desk, he was great to deal with.  We left the next morning, via cab due to the shuttle not working, and noticed they had a number of inspectors in the hotel.  Not sure if this is a regular thing or was occurring due to complaints.  All in all I would stay away from this hotel, there are MUCH better hotels in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r160155840-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160155840</t>
+  </si>
+  <si>
+    <t>05/09/2013</t>
+  </si>
+  <si>
+    <t>Check your room for cleanliness.</t>
+  </si>
+  <si>
+    <t>Had nothing but trouble with room cleanliness. Lights not working. There was a significant toilet ring. Shower had someone else's hair, had to wipe it down myself.Coffee was not available due to frozen grinds.Staff was friendly.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r155657063-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
   </si>
   <si>
@@ -1037,6 +1556,45 @@
   </si>
   <si>
     <t>We normally get a room close to airport with no reservation, for some reason most had no available rooms. We saw this hotel and it has a now open sign so instantly we thought "new". The lobby may be new but the too s were disgusting, there was a nasty couch that had horrible stains and the furniture was soo beat up.  Would NEVER recommend this place to anyone and I would never even think of staying at another Quality Inn Hotel Just Nasty and awful!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r75373378-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>75373378</t>
+  </si>
+  <si>
+    <t>08/15/2010</t>
+  </si>
+  <si>
+    <t>Stop and go elsewhere...........</t>
+  </si>
+  <si>
+    <t>My family gave me a baby shower at this hotel and afterwards one of my family members walked to her car to realize that it had been burgalirized.....Not only did the staff not care but also made races remark. The bugalry happened within seconds and the hotel claim they couldn't zoom in on the video.....but when investigators got there it was a different story. If you have to have a gathering and need a meeting room make sure you have your own security. And prepare yourself for the races comments the staff will be making and have patiences to wait for the police. I will definitely NOT recommend this to family and friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family gave me a baby shower at this hotel and afterwards one of my family members walked to her car to realize that it had been burgalirized.....Not only did the staff not care but also made races remark. The bugalry happened within seconds and the hotel claim they couldn't zoom in on the video.....but when investigators got there it was a different story. If you have to have a gathering and need a meeting room make sure you have your own security. And prepare yourself for the races comments the staff will be making and have patiences to wait for the police. I will definitely NOT recommend this to family and friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r61100412-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>61100412</t>
+  </si>
+  <si>
+    <t>04/12/2010</t>
+  </si>
+  <si>
+    <t>SHOULD HAVE DONE MY RESEARCH BEFORE BOOKING</t>
+  </si>
+  <si>
+    <t>My family and I recently had an overnight stay at the hotel following a return trip from Europe.  While the hotel provided us with complimentary services, i.e. shuttle service to/from airport and continental breakfast, its location is far from ideal.  It is not in close proximity or even walking distance to ANYTHING .    Following morning at the airport, my daughter realized that she left her purse in the breakfast lounge.  We notified staff and reported the contents of the purse.  Staff reported that he retrieved purse from lounge.  My brother went to pick up purse and stated that all reported contents were not in purse.  He further stated that he received conflicting reports from employees about where purse was found. I notified owner the following morning and asked that he review  video from lounge.  Owner did return call  and informed me of one employee's account of what happened.  Needless to say, we remain saddened and disappointed!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>My family and I recently had an overnight stay at the hotel following a return trip from Europe.  While the hotel provided us with complimentary services, i.e. shuttle service to/from airport and continental breakfast, its location is far from ideal.  It is not in close proximity or even walking distance to ANYTHING .    Following morning at the airport, my daughter realized that she left her purse in the breakfast lounge.  We notified staff and reported the contents of the purse.  Staff reported that he retrieved purse from lounge.  My brother went to pick up purse and stated that all reported contents were not in purse.  He further stated that he received conflicting reports from employees about where purse was found. I notified owner the following morning and asked that he review  video from lounge.  Owner did return call  and informed me of one employee's account of what happened.  Needless to say, we remain saddened and disappointed!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d247110-r17418844-Quality_Suites_Bush_IAH_Airport_West-Houston_Texas.html</t>
@@ -1639,7 +2197,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1649,13 +2207,15 @@
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1691,22 +2251,22 @@
         <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1720,7 +2280,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1736,7 +2296,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1745,34 +2305,32 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" t="s">
         <v>63</v>
-      </c>
-      <c r="L4" t="s">
-        <v>64</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
         <v>53</v>
       </c>
-      <c r="P4" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4</v>
-      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
         <v>3</v>
@@ -1780,14 +2338,10 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>65</v>
-      </c>
-      <c r="X4" t="s">
-        <v>66</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -1803,58 +2357,48 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s">
         <v>68</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>69</v>
       </c>
-      <c r="J5" t="s">
+      <c r="O5" t="s">
         <v>70</v>
       </c>
-      <c r="K5" t="s">
-        <v>71</v>
-      </c>
-      <c r="L5" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>1</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>74</v>
-      </c>
-      <c r="X5" t="s">
-        <v>75</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
@@ -1870,7 +2414,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1879,45 +2423,49 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="O6" t="s">
-        <v>83</v>
-      </c>
-      <c r="P6" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
       <c r="Q6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>4</v>
-      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X6" t="s">
+        <v>77</v>
+      </c>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -1933,7 +2481,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1942,37 +2490,35 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1980,7 +2526,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -1996,7 +2542,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2005,45 +2551,39 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>2</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>1</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -2059,7 +2599,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2068,39 +2608,49 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="O9" t="s">
-        <v>104</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>97</v>
+      </c>
+      <c r="X9" t="s">
+        <v>98</v>
+      </c>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
@@ -2116,7 +2666,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2125,35 +2675,37 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="O10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -2161,7 +2713,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
@@ -2177,56 +2729,54 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
         <v>112</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
-        <v>113</v>
-      </c>
-      <c r="J11" t="s">
-        <v>114</v>
-      </c>
-      <c r="K11" t="s">
-        <v>115</v>
-      </c>
-      <c r="L11" t="s">
-        <v>116</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>117</v>
-      </c>
       <c r="O11" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>118</v>
-      </c>
-      <c r="X11" t="s">
-        <v>119</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
@@ -2242,7 +2792,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2251,35 +2801,43 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" t="s">
+        <v>120</v>
+      </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
@@ -2295,31 +2853,35 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
         <v>126</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
-        <v>127</v>
-      </c>
-      <c r="J13" t="s">
-        <v>128</v>
-      </c>
-      <c r="K13" t="s">
-        <v>129</v>
-      </c>
-      <c r="L13" t="s">
-        <v>130</v>
-      </c>
-      <c r="M13" t="n">
-        <v>3</v>
-      </c>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
+      <c r="O13" t="s">
+        <v>70</v>
+      </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
@@ -2332,7 +2894,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
@@ -2348,44 +2910,46 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s">
         <v>131</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
         <v>132</v>
       </c>
-      <c r="J14" t="s">
-        <v>133</v>
-      </c>
-      <c r="K14" t="s">
-        <v>134</v>
-      </c>
-      <c r="L14" t="s">
-        <v>135</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>117</v>
-      </c>
       <c r="O14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2393,7 +2957,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15">
@@ -2409,54 +2973,48 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" t="s">
         <v>136</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="K15" t="s">
         <v>137</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>138</v>
-      </c>
-      <c r="K15" t="s">
-        <v>139</v>
-      </c>
-      <c r="L15" t="s">
-        <v>140</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>3</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16">
@@ -2472,38 +3030,38 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" t="s">
         <v>142</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>143</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>144</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
         <v>145</v>
       </c>
-      <c r="L16" t="s">
-        <v>146</v>
-      </c>
-      <c r="M16" t="n">
-        <v>4</v>
-      </c>
-      <c r="N16" t="s">
-        <v>141</v>
-      </c>
       <c r="O16" t="s">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
@@ -2517,7 +3075,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17">
@@ -2533,48 +3091,58 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" t="s">
         <v>149</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
         <v>150</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" t="s">
         <v>151</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
         <v>152</v>
       </c>
-      <c r="L17" t="s">
+      <c r="O17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
         <v>153</v>
       </c>
-      <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="X17" t="s">
         <v>154</v>
       </c>
-      <c r="O17" t="s">
-        <v>147</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
-      <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18">
@@ -2590,7 +3158,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2599,37 +3167,35 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O18" t="s">
-        <v>59</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="n">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2637,7 +3203,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
@@ -2674,31 +3240,35 @@
         <v>166</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
         <v>167</v>
       </c>
       <c r="O19" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="P19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>168</v>
+      </c>
+      <c r="X19" t="s">
+        <v>169</v>
+      </c>
       <c r="Y19" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20">
@@ -2714,7 +3284,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2723,45 +3293,35 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J20" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K20" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L20" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
-      <c r="N20" t="s">
-        <v>173</v>
-      </c>
-      <c r="O20" t="s">
-        <v>147</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>4</v>
-      </c>
+      <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21">
@@ -2777,7 +3337,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2786,53 +3346,35 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
         <v>180</v>
-      </c>
-      <c r="O21" t="s">
-        <v>59</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
-      <c r="R21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4</v>
-      </c>
-      <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="s">
-        <v>181</v>
-      </c>
-      <c r="X21" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="22">
@@ -2848,52 +3390,50 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>182</v>
+      </c>
+      <c r="J22" t="s">
+        <v>183</v>
+      </c>
+      <c r="K22" t="s">
         <v>184</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="L22" t="s">
         <v>185</v>
       </c>
-      <c r="J22" t="s">
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
         <v>186</v>
       </c>
-      <c r="K22" t="s">
-        <v>187</v>
-      </c>
-      <c r="L22" t="s">
-        <v>188</v>
-      </c>
-      <c r="M22" t="n">
-        <v>4</v>
-      </c>
-      <c r="N22" t="s">
-        <v>180</v>
-      </c>
       <c r="O22" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>189</v>
-      </c>
-      <c r="X22" t="s">
-        <v>190</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23">
@@ -2909,58 +3449,44 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J23" t="s">
+        <v>190</v>
+      </c>
+      <c r="K23" t="s">
+        <v>191</v>
+      </c>
+      <c r="L23" t="s">
         <v>192</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
-        <v>193</v>
-      </c>
-      <c r="J23" t="s">
-        <v>194</v>
-      </c>
-      <c r="K23" t="s">
-        <v>195</v>
-      </c>
-      <c r="L23" t="s">
-        <v>196</v>
-      </c>
       <c r="M23" t="n">
-        <v>4</v>
-      </c>
-      <c r="N23" t="s">
-        <v>197</v>
-      </c>
-      <c r="O23" t="s">
-        <v>104</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
-      <c r="S23" t="n">
-        <v>3</v>
-      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>198</v>
-      </c>
-      <c r="X23" t="s">
-        <v>199</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24">
@@ -2976,7 +3502,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2985,49 +3511,43 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="J24" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="K24" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="L24" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="O24" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q24" t="s"/>
-      <c r="R24" t="n">
-        <v>4</v>
-      </c>
+      <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>198</v>
-      </c>
-      <c r="X24" t="s">
-        <v>199</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25">
@@ -3043,7 +3563,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3052,37 +3572,37 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="J25" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="K25" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="L25" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O25" t="s">
         <v>53</v>
       </c>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
-      <c r="R25" t="n">
-        <v>4</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3090,7 +3610,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26">
@@ -3106,7 +3626,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3115,34 +3635,32 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="J26" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="K26" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="L26" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="O26" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
-      <c r="R26" t="n">
+      <c r="Q26" t="n">
         <v>4</v>
       </c>
-      <c r="S26" t="n">
-        <v>3</v>
-      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
         <v>3</v>
@@ -3153,7 +3671,7 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27">
@@ -3169,7 +3687,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3178,35 +3696,37 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="J27" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="K27" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="L27" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="O27" t="s">
-        <v>59</v>
-      </c>
-      <c r="P27" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
       <c r="Q27" t="s"/>
-      <c r="R27" t="n">
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
         <v>3</v>
       </c>
-      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -3214,7 +3734,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28">
@@ -3230,7 +3750,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3239,37 +3759,37 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="J28" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="K28" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="L28" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="s"/>
-      <c r="O28" t="s"/>
-      <c r="P28" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>221</v>
+      </c>
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
       <c r="R28" t="n">
         <v>3</v>
       </c>
       <c r="S28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3277,7 +3797,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29">
@@ -3293,7 +3813,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3302,49 +3822,39 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="J29" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="K29" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="L29" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="O29" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="P29" t="s"/>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
-      <c r="R29" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>4</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>237</v>
-      </c>
-      <c r="X29" t="s">
-        <v>238</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30">
@@ -3360,7 +3870,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3369,49 +3879,45 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="J30" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="K30" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="L30" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="O30" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="P30" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>4</v>
-      </c>
-      <c r="R30" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>237</v>
-      </c>
-      <c r="X30" t="s">
-        <v>238</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31">
@@ -3427,7 +3933,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3436,33 +3942,35 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="J31" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="K31" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="L31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
-      </c>
-      <c r="P31" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2</v>
+      </c>
       <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3470,7 +3978,7 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32">
@@ -3486,7 +3994,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3495,25 +4003,25 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="J32" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="K32" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="L32" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="O32" t="s">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3524,14 +4032,10 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>258</v>
-      </c>
-      <c r="X32" t="s">
-        <v>259</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33">
@@ -3547,7 +4051,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3556,43 +4060,49 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="J33" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="K33" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="L33" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="O33" t="s">
-        <v>104</v>
-      </c>
-      <c r="P33" t="s"/>
-      <c r="Q33" t="s"/>
-      <c r="R33" t="s"/>
-      <c r="S33" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>266</v>
-      </c>
-      <c r="X33" t="s">
-        <v>267</v>
-      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34">
@@ -3608,7 +4118,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3617,38 +4127,34 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="J34" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="K34" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="L34" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="O34" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
       </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q34" t="s"/>
       <c r="R34" t="n">
         <v>4</v>
       </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
         <v>5</v>
@@ -3656,14 +4162,10 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s">
-        <v>266</v>
-      </c>
-      <c r="X34" t="s">
-        <v>267</v>
-      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35">
@@ -3679,7 +4181,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3688,53 +4190,53 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="J35" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="K35" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="L35" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="O35" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
         <v>3</v>
       </c>
-      <c r="Q35" t="n">
-        <v>1</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1</v>
-      </c>
       <c r="S35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="X35" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="Y35" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36">
@@ -3750,7 +4252,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3759,53 +4261,43 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="J36" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="K36" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="L36" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="O36" t="s">
-        <v>104</v>
-      </c>
-      <c r="P36" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>4</v>
-      </c>
-      <c r="R36" t="n">
-        <v>4</v>
-      </c>
-      <c r="S36" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>4</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="X36" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="Y36" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37">
@@ -3821,7 +4313,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3830,41 +4322,37 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="J37" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="K37" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="L37" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="O37" t="s">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3876,7 +4364,7 @@
         <v>283</v>
       </c>
       <c r="Y37" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38">
@@ -3892,7 +4380,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -3901,34 +4389,34 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="J38" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="K38" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="L38" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
-      <c r="N38" t="s"/>
-      <c r="O38" t="s"/>
+      <c r="N38" t="s">
+        <v>290</v>
+      </c>
+      <c r="O38" t="s">
+        <v>60</v>
+      </c>
       <c r="P38" t="n">
         <v>5</v>
       </c>
       <c r="Q38" t="n">
         <v>4</v>
       </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
-      <c r="S38" t="n">
-        <v>4</v>
-      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
         <v>5</v>
@@ -3943,7 +4431,7 @@
         <v>283</v>
       </c>
       <c r="Y38" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39">
@@ -3959,7 +4447,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -3968,37 +4456,33 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="J39" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="K39" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="L39" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="O39" t="s">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="P39" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q39" t="n">
         <v>4</v>
       </c>
-      <c r="R39" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
       <c r="S39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
@@ -4014,7 +4498,7 @@
         <v>283</v>
       </c>
       <c r="Y39" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="40">
@@ -4030,7 +4514,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4039,49 +4523,49 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="J40" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="K40" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="L40" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="O40" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="P40" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q40" t="s"/>
       <c r="R40" t="n">
-        <v>3</v>
-      </c>
-      <c r="S40" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>282</v>
+      </c>
+      <c r="X40" t="s">
+        <v>283</v>
+      </c>
       <c r="Y40" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41">
@@ -4097,7 +4581,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4106,41 +4590,37 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="J41" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="K41" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="L41" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="O41" t="s">
-        <v>147</v>
-      </c>
-      <c r="P41" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
       <c r="R41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -4148,7 +4628,7 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42">
@@ -4164,7 +4644,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4173,37 +4653,37 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="J42" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="K42" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="L42" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
-      <c r="N42" t="s">
-        <v>329</v>
-      </c>
-      <c r="O42" t="s">
-        <v>59</v>
-      </c>
-      <c r="P42" t="s"/>
-      <c r="Q42" t="s"/>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
       <c r="R42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S42" t="n">
         <v>2</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -4211,7 +4691,7 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
     <row r="43">
@@ -4227,7 +4707,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4236,45 +4716,39 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="J43" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="K43" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="L43" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="s"/>
-      <c r="O43" t="s"/>
-      <c r="P43" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>1</v>
-      </c>
-      <c r="R43" t="n">
-        <v>2</v>
-      </c>
-      <c r="S43" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>322</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>1</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
     </row>
     <row r="44">
@@ -4290,7 +4764,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4299,34 +4773,30 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="J44" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="K44" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="L44" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="M44" t="n">
         <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
-      </c>
-      <c r="P44" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>2</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
       <c r="R44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S44" t="n">
         <v>3</v>
@@ -4341,7 +4811,7 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45">
@@ -4357,7 +4827,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4366,41 +4836,35 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="J45" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="K45" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="L45" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>329</v>
+      </c>
+      <c r="O45" t="s">
+        <v>70</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
         <v>3</v>
       </c>
-      <c r="N45" t="s">
-        <v>347</v>
-      </c>
-      <c r="O45" t="s">
-        <v>53</v>
-      </c>
-      <c r="P45" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>2</v>
-      </c>
-      <c r="R45" t="n">
-        <v>2</v>
-      </c>
-      <c r="S45" t="n">
-        <v>2</v>
-      </c>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4408,7 +4872,7 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
     </row>
     <row r="46">
@@ -4424,7 +4888,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4433,35 +4897,1977 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="J46" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="K46" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="L46" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="s"/>
       <c r="O46" t="s"/>
-      <c r="P46" t="s"/>
-      <c r="Q46" t="s"/>
-      <c r="R46" t="s"/>
-      <c r="S46" t="s"/>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
       <c r="T46" t="s"/>
-      <c r="U46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>341</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>342</v>
+      </c>
+      <c r="J47" t="s">
+        <v>343</v>
+      </c>
+      <c r="K47" t="s">
+        <v>344</v>
+      </c>
+      <c r="L47" t="s">
+        <v>345</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>346</v>
+      </c>
+      <c r="O47" t="s">
+        <v>60</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>347</v>
+      </c>
+      <c r="X47" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>350</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>351</v>
+      </c>
+      <c r="J48" t="s">
+        <v>352</v>
+      </c>
+      <c r="K48" t="s">
+        <v>353</v>
+      </c>
+      <c r="L48" t="s">
         <v>354</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>355</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>356</v>
+      </c>
+      <c r="X48" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>359</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>360</v>
+      </c>
+      <c r="J49" t="s">
+        <v>361</v>
+      </c>
+      <c r="K49" t="s">
+        <v>362</v>
+      </c>
+      <c r="L49" t="s">
+        <v>363</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>346</v>
+      </c>
+      <c r="O49" t="s">
+        <v>70</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>356</v>
+      </c>
+      <c r="X49" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>365</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>366</v>
+      </c>
+      <c r="J50" t="s">
+        <v>367</v>
+      </c>
+      <c r="K50" t="s">
+        <v>368</v>
+      </c>
+      <c r="L50" t="s">
+        <v>369</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>346</v>
+      </c>
+      <c r="O50" t="s">
+        <v>106</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>356</v>
+      </c>
+      <c r="X50" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>371</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>372</v>
+      </c>
+      <c r="J51" t="s">
+        <v>373</v>
+      </c>
+      <c r="K51" t="s">
+        <v>374</v>
+      </c>
+      <c r="L51" t="s">
+        <v>375</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>355</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>376</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>377</v>
+      </c>
+      <c r="J52" t="s">
+        <v>378</v>
+      </c>
+      <c r="K52" t="s">
+        <v>379</v>
+      </c>
+      <c r="L52" t="s">
+        <v>380</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>355</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>382</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>383</v>
+      </c>
+      <c r="J53" t="s">
+        <v>384</v>
+      </c>
+      <c r="K53" t="s">
+        <v>385</v>
+      </c>
+      <c r="L53" t="s">
+        <v>386</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>387</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>388</v>
+      </c>
+      <c r="J54" t="s">
+        <v>389</v>
+      </c>
+      <c r="K54" t="s">
+        <v>390</v>
+      </c>
+      <c r="L54" t="s">
+        <v>391</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>392</v>
+      </c>
+      <c r="O54" t="s">
+        <v>120</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>393</v>
+      </c>
+      <c r="X54" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>396</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>397</v>
+      </c>
+      <c r="J55" t="s">
+        <v>398</v>
+      </c>
+      <c r="K55" t="s">
+        <v>399</v>
+      </c>
+      <c r="L55" t="s">
+        <v>400</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>392</v>
+      </c>
+      <c r="O55" t="s">
+        <v>60</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>401</v>
+      </c>
+      <c r="X55" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>404</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>405</v>
+      </c>
+      <c r="J56" t="s">
+        <v>406</v>
+      </c>
+      <c r="K56" t="s">
+        <v>407</v>
+      </c>
+      <c r="L56" t="s">
+        <v>408</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>409</v>
+      </c>
+      <c r="O56" t="s">
+        <v>70</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>401</v>
+      </c>
+      <c r="X56" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>411</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>412</v>
+      </c>
+      <c r="J57" t="s">
+        <v>413</v>
+      </c>
+      <c r="K57" t="s">
+        <v>414</v>
+      </c>
+      <c r="L57" t="s">
+        <v>415</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>417</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>418</v>
+      </c>
+      <c r="J58" t="s">
+        <v>419</v>
+      </c>
+      <c r="K58" t="s">
+        <v>420</v>
+      </c>
+      <c r="L58" t="s">
+        <v>421</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>422</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>423</v>
+      </c>
+      <c r="X58" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>426</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>427</v>
+      </c>
+      <c r="J59" t="s">
+        <v>428</v>
+      </c>
+      <c r="K59" t="s">
+        <v>429</v>
+      </c>
+      <c r="L59" t="s">
+        <v>430</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>422</v>
+      </c>
+      <c r="O59" t="s">
+        <v>70</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>431</v>
+      </c>
+      <c r="X59" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>434</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>435</v>
+      </c>
+      <c r="J60" t="s">
+        <v>436</v>
+      </c>
+      <c r="K60" t="s">
+        <v>437</v>
+      </c>
+      <c r="L60" t="s">
+        <v>438</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>422</v>
+      </c>
+      <c r="O60" t="s">
+        <v>60</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>431</v>
+      </c>
+      <c r="X60" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>440</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>441</v>
+      </c>
+      <c r="J61" t="s">
+        <v>442</v>
+      </c>
+      <c r="K61" t="s">
+        <v>443</v>
+      </c>
+      <c r="L61" t="s">
+        <v>444</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>445</v>
+      </c>
+      <c r="O61" t="s">
+        <v>120</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>431</v>
+      </c>
+      <c r="X61" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>447</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>448</v>
+      </c>
+      <c r="J62" t="s">
+        <v>449</v>
+      </c>
+      <c r="K62" t="s">
+        <v>450</v>
+      </c>
+      <c r="L62" t="s">
+        <v>451</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>431</v>
+      </c>
+      <c r="X62" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>453</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>454</v>
+      </c>
+      <c r="J63" t="s">
+        <v>455</v>
+      </c>
+      <c r="K63" t="s">
+        <v>456</v>
+      </c>
+      <c r="L63" t="s">
+        <v>457</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>431</v>
+      </c>
+      <c r="X63" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>459</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>460</v>
+      </c>
+      <c r="J64" t="s">
+        <v>461</v>
+      </c>
+      <c r="K64" t="s">
+        <v>462</v>
+      </c>
+      <c r="L64" t="s">
+        <v>463</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>431</v>
+      </c>
+      <c r="X64" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>465</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>466</v>
+      </c>
+      <c r="J65" t="s">
+        <v>467</v>
+      </c>
+      <c r="K65" t="s">
+        <v>468</v>
+      </c>
+      <c r="L65" t="s">
+        <v>469</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>470</v>
+      </c>
+      <c r="O65" t="s">
+        <v>120</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>431</v>
+      </c>
+      <c r="X65" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>472</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>473</v>
+      </c>
+      <c r="J66" t="s">
+        <v>474</v>
+      </c>
+      <c r="K66" t="s">
+        <v>475</v>
+      </c>
+      <c r="L66" t="s">
+        <v>476</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>470</v>
+      </c>
+      <c r="O66" t="s">
+        <v>60</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>478</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>479</v>
+      </c>
+      <c r="J67" t="s">
+        <v>480</v>
+      </c>
+      <c r="K67" t="s">
+        <v>481</v>
+      </c>
+      <c r="L67" t="s">
+        <v>482</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>483</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>485</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>486</v>
+      </c>
+      <c r="J68" t="s">
+        <v>487</v>
+      </c>
+      <c r="K68" t="s">
+        <v>488</v>
+      </c>
+      <c r="L68" t="s">
+        <v>489</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>490</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>491</v>
+      </c>
+      <c r="J69" t="s">
+        <v>492</v>
+      </c>
+      <c r="K69" t="s">
+        <v>493</v>
+      </c>
+      <c r="L69" t="s">
+        <v>494</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>495</v>
+      </c>
+      <c r="O69" t="s">
+        <v>120</v>
+      </c>
+      <c r="P69" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2</v>
+      </c>
+      <c r="S69" t="n">
+        <v>2</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>497</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>498</v>
+      </c>
+      <c r="J70" t="s">
+        <v>499</v>
+      </c>
+      <c r="K70" t="s">
+        <v>500</v>
+      </c>
+      <c r="L70" t="s">
+        <v>501</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="s">
+        <v>502</v>
+      </c>
+      <c r="O70" t="s">
+        <v>70</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>2</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>503</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>504</v>
+      </c>
+      <c r="J71" t="s">
+        <v>505</v>
+      </c>
+      <c r="K71" t="s">
+        <v>506</v>
+      </c>
+      <c r="L71" t="s">
+        <v>507</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>508</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>509</v>
+      </c>
+      <c r="J72" t="s">
+        <v>510</v>
+      </c>
+      <c r="K72" t="s">
+        <v>511</v>
+      </c>
+      <c r="L72" t="s">
+        <v>512</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>1</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>514</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>515</v>
+      </c>
+      <c r="J73" t="s">
+        <v>516</v>
+      </c>
+      <c r="K73" t="s">
+        <v>517</v>
+      </c>
+      <c r="L73" t="s">
+        <v>518</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>519</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>2</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>521</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>522</v>
+      </c>
+      <c r="J74" t="s">
+        <v>523</v>
+      </c>
+      <c r="K74" t="s">
+        <v>524</v>
+      </c>
+      <c r="L74" t="s">
+        <v>525</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="s">
+        <v>526</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>528</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>529</v>
+      </c>
+      <c r="J75" t="s">
+        <v>530</v>
+      </c>
+      <c r="K75" t="s">
+        <v>531</v>
+      </c>
+      <c r="L75" t="s">
+        <v>532</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>533</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2</v>
+      </c>
+      <c r="S75" t="n">
+        <v>2</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>44145</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>535</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>536</v>
+      </c>
+      <c r="J76" t="s">
+        <v>537</v>
+      </c>
+      <c r="K76" t="s">
+        <v>538</v>
+      </c>
+      <c r="L76" t="s">
+        <v>539</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>540</v>
       </c>
     </row>
   </sheetData>
